--- a/src/Data/country_data.xlsx
+++ b/src/Data/country_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luisfernandoquezada/Desktop/Riesgo SR MRAT/DATA_Archive/BLZ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5aee5c5b004427f/Documents/mr-risk-assessment/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB9B45C-EA6E-2B4F-B642-69CC5184D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{ECB9B45C-EA6E-2B4F-B642-69CC5184D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{475D494B-CA31-46EC-A12E-F66127501316}"/>
   <bookViews>
-    <workbookView xWindow="-35840" yWindow="500" windowWidth="35840" windowHeight="21900" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-General" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="202">
   <si>
     <t>Case ID</t>
   </si>
@@ -681,9 +681,6 @@
     <t>Brote</t>
   </si>
   <si>
-    <t>Belice</t>
-  </si>
-  <si>
     <t>BLZ</t>
   </si>
   <si>
@@ -720,30 +717,12 @@
     <t>Toledo</t>
   </si>
   <si>
-    <t>18-057</t>
-  </si>
-  <si>
-    <t>San Mateo,</t>
-  </si>
-  <si>
     <t>18-054</t>
   </si>
   <si>
     <t>Bullet Tree Road,  -  San Ignacio</t>
   </si>
   <si>
-    <t>18-058</t>
-  </si>
-  <si>
-    <t>Cze caulker Village,</t>
-  </si>
-  <si>
-    <t>18-003</t>
-  </si>
-  <si>
-    <t>6 Baracuda St.,  -  Boca Del Toro</t>
-  </si>
-  <si>
     <t>18-004</t>
   </si>
   <si>
@@ -861,12 +840,6 @@
     <t>Silk Grass,</t>
   </si>
   <si>
-    <t>18-031</t>
-  </si>
-  <si>
-    <t>DFC Area,  -  San Pedro Town</t>
-  </si>
-  <si>
     <t>18-032</t>
   </si>
   <si>
@@ -924,36 +897,12 @@
     <t>Riversdale , Stann Creek -  Dangriga</t>
   </si>
   <si>
-    <t>18-035</t>
-  </si>
-  <si>
-    <t>67 Cor Vernon Jasmine,  -  Belize</t>
-  </si>
-  <si>
-    <t>18-041</t>
-  </si>
-  <si>
-    <t>329 Falcon St.,  -  Ladyville</t>
-  </si>
-  <si>
-    <t>18-042</t>
-  </si>
-  <si>
-    <t>,  -  Ladyville</t>
-  </si>
-  <si>
     <t>18-043</t>
   </si>
   <si>
     <t>Seinebight, Bella Vista Village -  Stan Creek</t>
   </si>
   <si>
-    <t>18-044</t>
-  </si>
-  <si>
-    <t>96 East Collet Canal,</t>
-  </si>
-  <si>
     <t>18-022</t>
   </si>
   <si>
@@ -1002,18 +951,6 @@
     <t>Hills of Promise, Benque Viejo Town -  Cayo</t>
   </si>
   <si>
-    <t>18-050</t>
-  </si>
-  <si>
-    <t>#1 Lawrence Avenue, St. Martins</t>
-  </si>
-  <si>
-    <t>18-023</t>
-  </si>
-  <si>
-    <t>Boca del Rio,</t>
-  </si>
-  <si>
     <t>18-033</t>
   </si>
   <si>
@@ -1026,12 +963,6 @@
     <t>31 Riverside Street,</t>
   </si>
   <si>
-    <t>18-052</t>
-  </si>
-  <si>
-    <t>14   8th Street , Kings Park -  Belize City</t>
-  </si>
-  <si>
     <t>18-053</t>
   </si>
   <si>
@@ -1044,18 +975,6 @@
     <t>Melagoo, San Ignacio -  Cayo</t>
   </si>
   <si>
-    <t>18-056</t>
-  </si>
-  <si>
-    <t>42 St. Thomas Street, Caribbean Shores -  Belize</t>
-  </si>
-  <si>
-    <t>18-034</t>
-  </si>
-  <si>
-    <t>73 A West Street,  -  Belize</t>
-  </si>
-  <si>
     <t>Geocódigo Admin1</t>
   </si>
   <si>
@@ -1098,7 +1017,7 @@
     <t>Belize</t>
   </si>
   <si>
-    <t>SPA</t>
+    <t>ENG</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1028,7 @@
     <numFmt numFmtId="164" formatCode="#,##0;\-#,###;&quot;-&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1332,13 +1251,6 @@
       <color indexed="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1578,7 +1490,7 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1749,13 +1661,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="12" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2067,7 +1972,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="d/mm/yy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -2075,7 +1980,7 @@
       <font>
         <sz val="9"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="d/mm/yy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -2096,7 +2001,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="d/mm/yy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -2104,7 +2009,7 @@
       <font>
         <sz val="9"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="d/mm/yy"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -2125,14 +2030,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="d/mm/yy"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="9"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="d/mm/yy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -2153,14 +2058,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="d/mm/yy"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="9"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="d/mm/yy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -2181,14 +2086,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="d/mm/yy"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
         <sz val="9"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="d/mm/yy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -2262,11 +2167,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="d/mm/yy"/>
+      <numFmt numFmtId="166" formatCode="d/mm/yy"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2358,7 +2263,7 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -2749,8 +2654,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="table_case_based_data18" displayName="table_case_based_data18" ref="A13:S72" totalsRowCount="1" headerRowDxfId="49" totalsRowDxfId="48">
-  <autoFilter ref="A13:S71" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="table_case_based_data18" displayName="table_case_based_data18" ref="A13:S59" totalsRowCount="1" headerRowDxfId="49" totalsRowDxfId="48">
+  <autoFilter ref="A13:S58" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year" totalsRowLabel="Total" dataDxfId="47" totalsRowDxfId="46"/>
     <tableColumn id="5" xr3:uid="{832308A3-6DE1-5740-B797-21A881936E5D}" name="Admin2 geo codes" totalsRowDxfId="45"/>
@@ -2837,9 +2742,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2877,7 +2782,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2983,7 +2888,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3125,7 +3030,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3137,33 +3042,33 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="70.5" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="5" customWidth="1"/>
-    <col min="3" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="21" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="55" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -3171,7 +3076,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -3179,7 +3084,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -3187,7 +3092,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -3195,7 +3100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -3203,7 +3108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
@@ -3211,12 +3116,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3239,23 +3144,23 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="27" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="27" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="27"/>
+    <col min="1" max="1" width="17.1796875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>30</v>
@@ -3270,18 +3175,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>91</v>
-      </c>
       <c r="C2" s="33" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="E2" s="51">
         <v>120600</v>
@@ -3290,18 +3195,18 @@
         <v>4307.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E3" s="52">
         <v>96197</v>
@@ -3310,18 +3215,18 @@
         <v>5195.6000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E4" s="52">
         <v>48429</v>
@@ -3330,18 +3235,18 @@
         <v>1859.6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="E5" s="52">
         <v>51749</v>
@@ -3350,18 +3255,18 @@
         <v>4636.1000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="E6" s="52">
         <v>43944</v>
@@ -3370,18 +3275,18 @@
         <v>2553.6999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E7" s="52">
         <v>37614</v>
@@ -3407,60 +3312,60 @@
       <selection activeCell="E3" sqref="E3:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="9.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="27" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="27" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" style="27" customWidth="1"/>
-    <col min="10" max="11" width="8.1640625" style="27" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" style="27" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="27" customWidth="1"/>
-    <col min="14" max="14" width="7.33203125" style="27" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="27" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="27"/>
+    <col min="1" max="2" width="9.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="8.1796875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="7.1796875" style="27" customWidth="1"/>
+    <col min="10" max="11" width="8.1796875" style="27" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" style="27" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" style="27" customWidth="1"/>
+    <col min="14" max="14" width="7.36328125" style="27" customWidth="1"/>
+    <col min="15" max="15" width="16.6328125" style="27" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="C1" s="62" t="s">
+    <row r="1" spans="1:15" ht="61" customHeight="1">
+      <c r="A1" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="60" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="E1" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="40">
         <f>'1-General'!$B$3-5</f>
         <v>2014</v>
@@ -3501,20 +3406,20 @@
         <f>'1-General'!$B$3-1</f>
         <v>2018</v>
       </c>
-      <c r="O2" s="61"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O2" s="59"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>91</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="E3" s="31">
         <v>97</v>
@@ -3550,18 +3455,18 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E4" s="31">
         <v>94</v>
@@ -3597,18 +3502,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E5" s="31">
         <v>95</v>
@@ -3644,18 +3549,18 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="E6" s="31">
         <v>96</v>
@@ -3691,18 +3596,18 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="E7" s="31">
         <v>94</v>
@@ -3738,18 +3643,18 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E8" s="31">
         <v>96</v>
@@ -3785,7 +3690,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="16.5">
       <c r="D10" s="32"/>
     </row>
   </sheetData>
@@ -3812,31 +3717,31 @@
       <selection activeCell="E3" sqref="E3:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="27" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="18.1796875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="27" customWidth="1"/>
     <col min="7" max="7" width="17" style="27" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="32.1796875" style="27" customWidth="1"/>
     <col min="9" max="9" width="30" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="27"/>
+    <col min="10" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="C1" s="63" t="s">
+    <row r="1" spans="1:9" ht="58" customHeight="1">
+      <c r="A1" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="61" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="35" t="s">
@@ -3855,11 +3760,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
+    <row r="2" spans="1:9">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="37">
         <f>'1-General'!$B$3-1</f>
         <v>2018</v>
@@ -3881,18 +3786,18 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="20.25" customHeight="1">
       <c r="A3" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>91</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="E3" s="31">
         <v>1839</v>
@@ -3912,18 +3817,18 @@
         <v>8.8091353996737354</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E4" s="31">
         <v>1636</v>
@@ -3943,18 +3848,18 @@
         <v>-2.8728606356968216</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E5" s="31">
         <v>717</v>
@@ -3974,18 +3879,18 @@
         <v>3.3472803347280333</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="E6" s="31">
         <v>1025</v>
@@ -4005,18 +3910,18 @@
         <v>4.7804878048780486</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="E7" s="31">
         <v>979</v>
@@ -4036,18 +3941,18 @@
         <v>-1.7364657814096014</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E8" s="31">
         <v>597</v>
@@ -4089,34 +3994,34 @@
       <selection activeCell="D3" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="9.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="27" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" style="27" customWidth="1"/>
+    <col min="1" max="2" width="9.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="24.81640625" style="27" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="27" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" style="27" customWidth="1"/>
     <col min="10" max="10" width="20" style="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="27" customWidth="1"/>
-    <col min="12" max="12" width="21.5" style="27" customWidth="1"/>
-    <col min="13" max="16" width="20.83203125" style="27" customWidth="1"/>
-    <col min="17" max="16384" width="9.1640625" style="27"/>
+    <col min="11" max="11" width="19.1796875" style="27" customWidth="1"/>
+    <col min="12" max="12" width="21.453125" style="27" customWidth="1"/>
+    <col min="13" max="16" width="20.81640625" style="27" customWidth="1"/>
+    <col min="17" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="C1" s="63" t="s">
+    <row r="1" spans="1:12" ht="112.5" customHeight="1">
+      <c r="A1" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="61" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="35" t="s">
@@ -4144,11 +4049,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
+    <row r="2" spans="1:12" ht="29" customHeight="1">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="34">
         <f>'1-General'!$B$3-1</f>
         <v>2018</v>
@@ -4182,18 +4087,18 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>91</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>41</v>
@@ -4220,18 +4125,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>41</v>
@@ -4258,18 +4163,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>41</v>
@@ -4296,18 +4201,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>41</v>
@@ -4334,18 +4239,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>41</v>
@@ -4372,18 +4277,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>41</v>
@@ -4429,83 +4334,83 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S112"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView topLeftCell="G8" zoomScale="109" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="A10" zoomScale="109" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="18.5" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="28" width="35.83203125" customWidth="1"/>
+    <col min="14" max="14" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="35.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="24" customHeight="1">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
       <c r="O1" s="9"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
       <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="15" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
       <c r="O2" s="6"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="6"/>
     </row>
-    <row r="3" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="16" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="17" t="str">
@@ -4514,135 +4419,135 @@
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
       <c r="O3" s="6"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="6"/>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="15" customHeight="1">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
       <c r="O4" s="6"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="6"/>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="15" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
       <c r="O5" s="6"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
       <c r="O6" s="6"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="15" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
       <c r="O7" s="6"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="6"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
       <c r="O8" s="6"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="6"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4663,7 +4568,7 @@
       <c r="R9" s="14"/>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="15" t="s">
         <v>67</v>
       </c>
@@ -4722,12 +4627,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -4781,7 +4686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4802,7 +4707,7 @@
       <c r="R12" s="11"/>
       <c r="S12" s="6"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
@@ -4861,7 +4766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" s="18">
         <v>2018</v>
       </c>
@@ -4869,113 +4774,115 @@
         <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G14" s="21">
-        <v>34079</v>
+        <v>43125</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J14" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K14" s="21">
-        <v>43450</v>
+        <v>43285</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="54" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="N14" s="21">
-        <v>43451</v>
+        <v>43287</v>
       </c>
       <c r="O14" s="21">
-        <v>43452</v>
+        <v>43287</v>
       </c>
       <c r="P14" s="21">
-        <v>43452</v>
+        <v>43287</v>
       </c>
       <c r="Q14" s="22">
-        <v>43472</v>
+        <v>43297</v>
       </c>
       <c r="R14" s="22"/>
       <c r="S14" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="18">
         <v>2018</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="E15" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="21">
-        <v>43125</v>
+        <v>38887</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J15" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K15" s="21">
-        <v>43285</v>
+        <v>43133</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="M15" s="54">
+        <v>2</v>
       </c>
       <c r="N15" s="21">
-        <v>43287</v>
+        <v>43137</v>
       </c>
       <c r="O15" s="21">
-        <v>43287</v>
+        <v>43137</v>
       </c>
       <c r="P15" s="21">
-        <v>43287</v>
+        <v>43137</v>
       </c>
       <c r="Q15" s="22">
-        <v>43297</v>
-      </c>
-      <c r="R15" s="22"/>
+        <v>43147</v>
+      </c>
+      <c r="R15" s="22">
+        <v>40837</v>
+      </c>
       <c r="S15" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="18">
         <v>2018</v>
       </c>
@@ -4983,56 +4890,58 @@
         <v>91</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="21">
-        <v>35120</v>
+        <v>39817</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K16" s="21">
-        <v>43451</v>
+        <v>43137</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="54" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="M16" s="54">
+        <v>2</v>
       </c>
       <c r="N16" s="21">
-        <v>43451</v>
+        <v>43137</v>
       </c>
       <c r="O16" s="21">
-        <v>43455</v>
+        <v>43137</v>
       </c>
       <c r="P16" s="21">
-        <v>43455</v>
+        <v>43137</v>
       </c>
       <c r="Q16" s="22">
-        <v>43472</v>
-      </c>
-      <c r="R16" s="22"/>
+        <v>43147</v>
+      </c>
+      <c r="R16" s="22">
+        <v>40578</v>
+      </c>
       <c r="S16" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17" s="18">
         <v>2018</v>
       </c>
@@ -5040,25 +4949,25 @@
         <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="21">
-        <v>42545</v>
+        <v>30511</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J17" s="19" t="s">
         <v>41</v>
@@ -5067,120 +4976,118 @@
         <v>43133</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="54">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="M17" s="54" t="s">
+        <v>39</v>
       </c>
       <c r="N17" s="21">
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="O17" s="21">
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="P17" s="21">
-        <v>43136</v>
+        <v>43137</v>
       </c>
       <c r="Q17" s="22">
-        <v>43140</v>
+        <v>43147</v>
       </c>
       <c r="R17" s="22"/>
       <c r="S17" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="18">
         <v>2018</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G18" s="21">
-        <v>38887</v>
+        <v>41280</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J18" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K18" s="21">
-        <v>43133</v>
+        <v>43129</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="M18" s="54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" s="21">
-        <v>43137</v>
+        <v>43130</v>
       </c>
       <c r="O18" s="21">
-        <v>43137</v>
+        <v>43130</v>
       </c>
       <c r="P18" s="21">
-        <v>43137</v>
+        <v>43130</v>
       </c>
       <c r="Q18" s="22">
-        <v>43147</v>
-      </c>
-      <c r="R18" s="22">
-        <v>40837</v>
-      </c>
+        <v>43136</v>
+      </c>
+      <c r="R18" s="22"/>
       <c r="S18" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19" s="18">
         <v>2018</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="E19" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="21">
-        <v>39817</v>
+        <v>39011</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K19" s="21">
-        <v>43137</v>
+        <v>43133</v>
       </c>
       <c r="L19" s="19" t="s">
         <v>41</v>
@@ -5201,45 +5108,45 @@
         <v>43147</v>
       </c>
       <c r="R19" s="22">
-        <v>40578</v>
+        <v>40477</v>
       </c>
       <c r="S19" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19">
       <c r="A20" s="18">
         <v>2018</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="E20" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="21">
-        <v>30511</v>
+        <v>41166</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K20" s="21">
-        <v>43133</v>
+        <v>43137</v>
       </c>
       <c r="L20" s="19" t="s">
         <v>39</v>
@@ -5264,33 +5171,33 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19">
       <c r="A21" s="18">
         <v>2018</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G21" s="21">
-        <v>41280</v>
+        <v>36880</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>41</v>
@@ -5299,293 +5206,293 @@
         <v>43129</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="54">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="M21" s="54" t="s">
+        <v>39</v>
       </c>
       <c r="N21" s="21">
-        <v>43130</v>
+        <v>43137</v>
       </c>
       <c r="O21" s="21">
-        <v>43130</v>
+        <v>43137</v>
       </c>
       <c r="P21" s="21">
-        <v>43130</v>
+        <v>43137</v>
       </c>
       <c r="Q21" s="22">
-        <v>43136</v>
+        <v>43147</v>
       </c>
       <c r="R21" s="22"/>
       <c r="S21" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="18">
         <v>2018</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G22" s="21">
-        <v>39011</v>
+        <v>42668</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K22" s="21">
-        <v>43133</v>
+        <v>43129</v>
       </c>
       <c r="L22" s="19" t="s">
         <v>41</v>
       </c>
       <c r="M22" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="21">
-        <v>43137</v>
+        <v>43130</v>
       </c>
       <c r="O22" s="21">
-        <v>43137</v>
+        <v>43130</v>
       </c>
       <c r="P22" s="21">
-        <v>43137</v>
+        <v>43130</v>
       </c>
       <c r="Q22" s="22">
-        <v>43147</v>
+        <v>43136</v>
       </c>
       <c r="R22" s="22">
-        <v>40477</v>
+        <v>43039</v>
       </c>
       <c r="S22" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="18">
         <v>2018</v>
       </c>
       <c r="B23" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>93</v>
-      </c>
       <c r="E23" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="21">
-        <v>41166</v>
+        <v>42656</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K23" s="21">
-        <v>43137</v>
+        <v>43134</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M23" s="54" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="M23" s="54">
+        <v>1</v>
       </c>
       <c r="N23" s="21">
-        <v>43137</v>
+        <v>43139</v>
       </c>
       <c r="O23" s="21">
-        <v>43137</v>
+        <v>43139</v>
       </c>
       <c r="P23" s="21">
-        <v>43137</v>
+        <v>43139</v>
       </c>
       <c r="Q23" s="22">
-        <v>43147</v>
-      </c>
-      <c r="R23" s="22"/>
+        <v>43151</v>
+      </c>
+      <c r="R23" s="22">
+        <v>43027</v>
+      </c>
       <c r="S23" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19">
       <c r="A24" s="18">
         <v>2018</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G24" s="21">
-        <v>36880</v>
+        <v>42812</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K24" s="21">
-        <v>43129</v>
+        <v>43138</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M24" s="54" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="M24" s="54">
+        <v>0</v>
       </c>
       <c r="N24" s="21">
-        <v>43137</v>
+        <v>43139</v>
       </c>
       <c r="O24" s="21">
-        <v>43137</v>
+        <v>43139</v>
       </c>
       <c r="P24" s="21">
-        <v>43137</v>
+        <v>43139</v>
       </c>
       <c r="Q24" s="22">
-        <v>43147</v>
+        <v>43151</v>
       </c>
       <c r="R24" s="22"/>
       <c r="S24" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19">
       <c r="A25" s="18">
         <v>2018</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="21">
-        <v>42668</v>
+        <v>42982</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K25" s="21">
-        <v>43129</v>
+        <v>43143</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" s="54">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="N25" s="21">
-        <v>43130</v>
+        <v>43144</v>
       </c>
       <c r="O25" s="21">
-        <v>43130</v>
+        <v>43151</v>
       </c>
       <c r="P25" s="21">
-        <v>43130</v>
+        <v>43151</v>
       </c>
       <c r="Q25" s="22">
-        <v>43136</v>
-      </c>
-      <c r="R25" s="22">
-        <v>43039</v>
-      </c>
+        <v>43153</v>
+      </c>
+      <c r="R25" s="22"/>
       <c r="S25" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="18">
         <v>2018</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F26" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G26" s="21">
-        <v>42656</v>
+        <v>42697</v>
       </c>
       <c r="H26" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K26" s="21">
-        <v>43134</v>
+        <v>43139</v>
       </c>
       <c r="L26" s="19" t="s">
         <v>41</v>
@@ -5597,69 +5504,69 @@
         <v>43139</v>
       </c>
       <c r="O26" s="21">
-        <v>43139</v>
+        <v>43144</v>
       </c>
       <c r="P26" s="21">
-        <v>43139</v>
+        <v>43144</v>
       </c>
       <c r="Q26" s="22">
         <v>43151</v>
       </c>
       <c r="R26" s="22">
-        <v>43027</v>
+        <v>43068</v>
       </c>
       <c r="S26" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19">
       <c r="A27" s="18">
         <v>2018</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G27" s="21">
-        <v>42812</v>
+        <v>42805</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J27" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K27" s="21">
-        <v>43138</v>
+        <v>43141</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="54">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="M27" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="N27" s="21">
-        <v>43139</v>
+        <v>43142</v>
       </c>
       <c r="O27" s="21">
-        <v>43139</v>
+        <v>43144</v>
       </c>
       <c r="P27" s="21">
-        <v>43139</v>
+        <v>43144</v>
       </c>
       <c r="Q27" s="22">
         <v>43151</v>
@@ -5669,21 +5576,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19">
       <c r="A28" s="18">
         <v>2018</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>101</v>
-      </c>
       <c r="E28" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>36</v>
@@ -5695,13 +5602,13 @@
         <v>10</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K28" s="21">
-        <v>43143</v>
+        <v>43144</v>
       </c>
       <c r="L28" s="19" t="s">
         <v>40</v>
@@ -5710,13 +5617,13 @@
         <v>40</v>
       </c>
       <c r="N28" s="21">
-        <v>43144</v>
+        <v>43147</v>
       </c>
       <c r="O28" s="21">
-        <v>43151</v>
+        <v>43150</v>
       </c>
       <c r="P28" s="21">
-        <v>43151</v>
+        <v>43150</v>
       </c>
       <c r="Q28" s="22">
         <v>43153</v>
@@ -5726,39 +5633,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19">
       <c r="A29" s="18">
         <v>2018</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G29" s="21">
-        <v>42697</v>
+        <v>42472</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J29" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K29" s="21">
-        <v>43139</v>
+        <v>43135</v>
       </c>
       <c r="L29" s="19" t="s">
         <v>41</v>
@@ -5770,54 +5677,54 @@
         <v>43139</v>
       </c>
       <c r="O29" s="21">
-        <v>43144</v>
+        <v>43139</v>
       </c>
       <c r="P29" s="21">
-        <v>43144</v>
+        <v>43139</v>
       </c>
       <c r="Q29" s="22">
         <v>43151</v>
       </c>
       <c r="R29" s="22">
-        <v>43068</v>
+        <v>42891</v>
       </c>
       <c r="S29" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19">
       <c r="A30" s="18">
         <v>2018</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G30" s="21">
-        <v>42805</v>
+        <v>42943</v>
       </c>
       <c r="H30" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J30" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K30" s="21">
-        <v>43141</v>
+        <v>43154</v>
       </c>
       <c r="L30" s="19" t="s">
         <v>40</v>
@@ -5826,222 +5733,224 @@
         <v>40</v>
       </c>
       <c r="N30" s="21">
-        <v>43142</v>
+        <v>43157</v>
       </c>
       <c r="O30" s="21">
-        <v>43144</v>
+        <v>43157</v>
       </c>
       <c r="P30" s="21">
-        <v>43144</v>
+        <v>43157</v>
       </c>
       <c r="Q30" s="22">
-        <v>43151</v>
+        <v>43168</v>
       </c>
       <c r="R30" s="22"/>
       <c r="S30" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19">
       <c r="A31" s="18">
         <v>2018</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G31" s="21">
-        <v>42982</v>
+        <v>42730</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J31" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K31" s="21">
-        <v>43144</v>
+        <v>43155</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="M31" s="54" t="s">
+        <v>39</v>
       </c>
       <c r="N31" s="21">
-        <v>43147</v>
+        <v>43155</v>
       </c>
       <c r="O31" s="21">
-        <v>43150</v>
+        <v>43155</v>
       </c>
       <c r="P31" s="21">
-        <v>43150</v>
+        <v>43155</v>
       </c>
       <c r="Q31" s="22">
-        <v>43153</v>
+        <v>43168</v>
       </c>
       <c r="R31" s="22"/>
       <c r="S31" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19">
       <c r="A32" s="18">
         <v>2018</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G32" s="21">
-        <v>42472</v>
+        <v>42471</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J32" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K32" s="21">
-        <v>43135</v>
+        <v>43149</v>
       </c>
       <c r="L32" s="19" t="s">
         <v>41</v>
       </c>
       <c r="M32" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32" s="21">
-        <v>43139</v>
+        <v>43151</v>
       </c>
       <c r="O32" s="21">
-        <v>43139</v>
+        <v>43153</v>
       </c>
       <c r="P32" s="21">
-        <v>43139</v>
+        <v>43153</v>
       </c>
       <c r="Q32" s="22">
-        <v>43151</v>
+        <v>43168</v>
       </c>
       <c r="R32" s="22">
-        <v>42891</v>
+        <v>43025</v>
       </c>
       <c r="S32" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19">
       <c r="A33" s="18">
         <v>2018</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G33" s="21">
-        <v>42943</v>
+        <v>42492</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J33" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K33" s="21">
-        <v>43154</v>
+        <v>43153</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M33" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="M33" s="54">
+        <v>1</v>
       </c>
       <c r="N33" s="21">
-        <v>43157</v>
+        <v>43153</v>
       </c>
       <c r="O33" s="21">
-        <v>43157</v>
+        <v>43153</v>
       </c>
       <c r="P33" s="21">
-        <v>43157</v>
+        <v>43153</v>
       </c>
       <c r="Q33" s="22">
         <v>43168</v>
       </c>
-      <c r="R33" s="22"/>
+      <c r="R33" s="22">
+        <v>43133</v>
+      </c>
       <c r="S33" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19">
       <c r="A34" s="18">
         <v>2018</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F34" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G34" s="21">
-        <v>42730</v>
+        <v>42620</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J34" s="19" t="s">
         <v>41</v>
@@ -6050,114 +5959,116 @@
         <v>43155</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M34" s="54" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="M34" s="54">
+        <v>1</v>
       </c>
       <c r="N34" s="21">
-        <v>43155</v>
+        <v>43156</v>
       </c>
       <c r="O34" s="21">
-        <v>43155</v>
+        <v>43156</v>
       </c>
       <c r="P34" s="21">
-        <v>43155</v>
+        <v>43156</v>
       </c>
       <c r="Q34" s="22">
         <v>43168</v>
       </c>
-      <c r="R34" s="22"/>
+      <c r="R34" s="22">
+        <v>43076</v>
+      </c>
       <c r="S34" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19">
       <c r="A35" s="18">
         <v>2018</v>
       </c>
       <c r="B35" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>99</v>
-      </c>
       <c r="E35" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G35" s="21">
-        <v>42471</v>
+        <v>42685</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J35" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K35" s="21">
-        <v>43149</v>
+        <v>43153</v>
       </c>
       <c r="L35" s="19" t="s">
         <v>41</v>
       </c>
       <c r="M35" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N35" s="21">
-        <v>43151</v>
+        <v>43157</v>
       </c>
       <c r="O35" s="21">
-        <v>43153</v>
+        <v>43157</v>
       </c>
       <c r="P35" s="21">
-        <v>43153</v>
+        <v>43159</v>
       </c>
       <c r="Q35" s="22">
         <v>43168</v>
       </c>
       <c r="R35" s="22">
-        <v>43025</v>
+        <v>43128</v>
       </c>
       <c r="S35" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19">
       <c r="A36" s="18">
         <v>2018</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F36" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G36" s="21">
-        <v>42492</v>
+        <v>35212</v>
       </c>
       <c r="H36" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J36" s="19" t="s">
         <v>41</v>
@@ -6166,295 +6077,293 @@
         <v>43153</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M36" s="54">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="M36" s="54" t="s">
+        <v>39</v>
       </c>
       <c r="N36" s="21">
-        <v>43153</v>
+        <v>43157</v>
       </c>
       <c r="O36" s="21">
-        <v>43153</v>
+        <v>43157</v>
       </c>
       <c r="P36" s="21">
-        <v>43153</v>
+        <v>43157</v>
       </c>
       <c r="Q36" s="22">
         <v>43168</v>
       </c>
-      <c r="R36" s="22">
-        <v>43133</v>
-      </c>
+      <c r="R36" s="22"/>
       <c r="S36" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19">
       <c r="A37" s="18">
         <v>2018</v>
       </c>
       <c r="B37" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>101</v>
-      </c>
       <c r="E37" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G37" s="21">
-        <v>42620</v>
+        <v>42942</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J37" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K37" s="21">
-        <v>43155</v>
+        <v>43136</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M37" s="54">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="M37" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="N37" s="21">
-        <v>43156</v>
+        <v>43137</v>
       </c>
       <c r="O37" s="21">
-        <v>43156</v>
+        <v>43137</v>
       </c>
       <c r="P37" s="21">
-        <v>43156</v>
+        <v>43137</v>
       </c>
       <c r="Q37" s="22">
-        <v>43168</v>
-      </c>
-      <c r="R37" s="22">
-        <v>43076</v>
-      </c>
+        <v>43147</v>
+      </c>
+      <c r="R37" s="22"/>
       <c r="S37" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19">
       <c r="A38" s="18">
         <v>2018</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F38" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G38" s="21">
-        <v>42685</v>
+        <v>42558</v>
       </c>
       <c r="H38" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J38" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K38" s="21">
-        <v>43153</v>
+        <v>43150</v>
       </c>
       <c r="L38" s="19" t="s">
         <v>41</v>
       </c>
       <c r="M38" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N38" s="21">
-        <v>43157</v>
+        <v>43150</v>
       </c>
       <c r="O38" s="21">
-        <v>43157</v>
+        <v>43150</v>
       </c>
       <c r="P38" s="21">
-        <v>43159</v>
+        <v>43150</v>
       </c>
       <c r="Q38" s="22">
-        <v>43168</v>
+        <v>43154</v>
       </c>
       <c r="R38" s="22">
-        <v>43128</v>
+        <v>43104</v>
       </c>
       <c r="S38" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19">
       <c r="A39" s="18">
         <v>2018</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F39" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G39" s="21">
-        <v>42891</v>
+        <v>41189</v>
       </c>
       <c r="H39" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J39" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K39" s="21">
-        <v>43156</v>
+        <v>43166</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="M39" s="54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N39" s="21">
-        <v>43158</v>
+        <v>43169</v>
       </c>
       <c r="O39" s="21">
-        <v>43158</v>
+        <v>43169</v>
       </c>
       <c r="P39" s="21">
-        <v>43158</v>
+        <v>43169</v>
       </c>
       <c r="Q39" s="22">
-        <v>43168</v>
-      </c>
-      <c r="R39" s="22"/>
+        <v>43175</v>
+      </c>
+      <c r="R39" s="22">
+        <v>41925</v>
+      </c>
       <c r="S39" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19">
       <c r="A40" s="18">
         <v>2018</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F40" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G40" s="21">
-        <v>35212</v>
+        <v>35875</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J40" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K40" s="21">
-        <v>43153</v>
+        <v>43140</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M40" s="54" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="M40" s="54">
+        <v>0</v>
       </c>
       <c r="N40" s="21">
-        <v>43157</v>
+        <v>43143</v>
       </c>
       <c r="O40" s="21">
-        <v>43157</v>
+        <v>43144</v>
       </c>
       <c r="P40" s="21">
-        <v>43157</v>
+        <v>43144</v>
       </c>
       <c r="Q40" s="22">
-        <v>43168</v>
+        <v>43151</v>
       </c>
       <c r="R40" s="22"/>
       <c r="S40" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19">
       <c r="A41" s="18">
         <v>2018</v>
       </c>
       <c r="B41" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>101</v>
-      </c>
       <c r="E41" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F41" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G41" s="21">
-        <v>42942</v>
+        <v>42858</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J41" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K41" s="21">
-        <v>43136</v>
+        <v>43167</v>
       </c>
       <c r="L41" s="19" t="s">
         <v>40</v>
@@ -6463,55 +6372,55 @@
         <v>40</v>
       </c>
       <c r="N41" s="21">
-        <v>43137</v>
+        <v>43168</v>
       </c>
       <c r="O41" s="21">
-        <v>43137</v>
+        <v>43168</v>
       </c>
       <c r="P41" s="21">
-        <v>43137</v>
+        <v>43168</v>
       </c>
       <c r="Q41" s="22">
-        <v>43147</v>
+        <v>43175</v>
       </c>
       <c r="R41" s="22"/>
       <c r="S41" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19">
       <c r="A42" s="18">
         <v>2018</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G42" s="21">
-        <v>42558</v>
+        <v>42304</v>
       </c>
       <c r="H42" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J42" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K42" s="21">
-        <v>43150</v>
+        <v>43171</v>
       </c>
       <c r="L42" s="19" t="s">
         <v>41</v>
@@ -6520,173 +6429,175 @@
         <v>2</v>
       </c>
       <c r="N42" s="21">
-        <v>43150</v>
+        <v>43172</v>
       </c>
       <c r="O42" s="21">
-        <v>43150</v>
+        <v>43172</v>
       </c>
       <c r="P42" s="21">
-        <v>43150</v>
+        <v>43172</v>
       </c>
       <c r="Q42" s="22">
-        <v>43154</v>
+        <v>43175</v>
       </c>
       <c r="R42" s="22">
-        <v>43104</v>
+        <v>42887</v>
       </c>
       <c r="S42" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19">
       <c r="A43" s="18">
         <v>2018</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E43" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G43" s="21">
-        <v>41189</v>
+        <v>42718</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J43" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K43" s="21">
-        <v>43166</v>
+        <v>43132</v>
       </c>
       <c r="L43" s="19" t="s">
         <v>41</v>
       </c>
       <c r="M43" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43" s="21">
-        <v>43169</v>
+        <v>43132</v>
       </c>
       <c r="O43" s="21">
-        <v>43169</v>
+        <v>43132</v>
       </c>
       <c r="P43" s="21">
-        <v>43169</v>
+        <v>43132</v>
       </c>
       <c r="Q43" s="22">
-        <v>43175</v>
+        <v>43147</v>
       </c>
       <c r="R43" s="22">
-        <v>41925</v>
+        <v>43117</v>
       </c>
       <c r="S43" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="18">
         <v>2018</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F44" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G44" s="21">
-        <v>35875</v>
+        <v>42678</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J44" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K44" s="21">
-        <v>43140</v>
+        <v>43129</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="M44" s="54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N44" s="21">
-        <v>43143</v>
+        <v>43138</v>
       </c>
       <c r="O44" s="21">
-        <v>43144</v>
+        <v>43138</v>
       </c>
       <c r="P44" s="21">
-        <v>43144</v>
+        <v>43131</v>
       </c>
       <c r="Q44" s="22">
-        <v>43151</v>
-      </c>
-      <c r="R44" s="22"/>
+        <v>43147</v>
+      </c>
+      <c r="R44" s="22">
+        <v>43074</v>
+      </c>
       <c r="S44" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19">
       <c r="A45" s="18">
         <v>2018</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G45" s="21">
-        <v>42858</v>
+        <v>42966</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J45" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K45" s="21">
-        <v>43167</v>
+        <v>43171</v>
       </c>
       <c r="L45" s="19" t="s">
         <v>40</v>
@@ -6695,114 +6606,112 @@
         <v>40</v>
       </c>
       <c r="N45" s="21">
-        <v>43168</v>
+        <v>43174</v>
       </c>
       <c r="O45" s="21">
-        <v>43168</v>
+        <v>43174</v>
       </c>
       <c r="P45" s="21">
-        <v>43168</v>
+        <v>43175</v>
       </c>
       <c r="Q45" s="22">
         <v>43175</v>
       </c>
       <c r="R45" s="22"/>
       <c r="S45" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="18">
         <v>2018</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G46" s="21">
-        <v>42304</v>
+        <v>42704</v>
       </c>
       <c r="H46" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J46" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K46" s="21">
-        <v>43171</v>
+        <v>43195</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="M46" s="54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46" s="21">
-        <v>43172</v>
+        <v>43196</v>
       </c>
       <c r="O46" s="21">
-        <v>43172</v>
+        <v>43196</v>
       </c>
       <c r="P46" s="21">
-        <v>43172</v>
+        <v>43199</v>
       </c>
       <c r="Q46" s="22">
-        <v>43175</v>
-      </c>
-      <c r="R46" s="22">
-        <v>42887</v>
-      </c>
+        <v>43202</v>
+      </c>
+      <c r="R46" s="22"/>
       <c r="S46" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="18">
         <v>2018</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F47" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G47" s="21">
-        <v>42718</v>
+        <v>42734</v>
       </c>
       <c r="H47" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J47" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K47" s="21">
-        <v>43132</v>
+        <v>43148</v>
       </c>
       <c r="L47" s="19" t="s">
         <v>41</v>
@@ -6811,57 +6720,57 @@
         <v>1</v>
       </c>
       <c r="N47" s="21">
-        <v>43132</v>
+        <v>43150</v>
       </c>
       <c r="O47" s="21">
-        <v>43132</v>
+        <v>43150</v>
       </c>
       <c r="P47" s="21">
-        <v>43132</v>
+        <v>43150</v>
       </c>
       <c r="Q47" s="22">
-        <v>43147</v>
+        <v>43154</v>
       </c>
       <c r="R47" s="22">
-        <v>43117</v>
+        <v>43090</v>
       </c>
       <c r="S47" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="18">
         <v>2018</v>
       </c>
       <c r="B48" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>99</v>
-      </c>
       <c r="E48" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F48" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G48" s="21">
-        <v>42678</v>
+        <v>37715</v>
       </c>
       <c r="H48" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J48" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K48" s="21">
-        <v>43129</v>
+        <v>43150</v>
       </c>
       <c r="L48" s="19" t="s">
         <v>41</v>
@@ -6870,230 +6779,232 @@
         <v>2</v>
       </c>
       <c r="N48" s="21">
-        <v>43138</v>
+        <v>43153</v>
       </c>
       <c r="O48" s="21">
-        <v>43138</v>
+        <v>43153</v>
       </c>
       <c r="P48" s="21">
-        <v>43131</v>
+        <v>43153</v>
       </c>
       <c r="Q48" s="22">
-        <v>43147</v>
+        <v>43158</v>
       </c>
       <c r="R48" s="22">
-        <v>43074</v>
+        <v>38413</v>
       </c>
       <c r="S48" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19">
       <c r="A49" s="18">
         <v>2018</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F49" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G49" s="21">
-        <v>42966</v>
+        <v>42398</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I49" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J49" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K49" s="21">
-        <v>43171</v>
+        <v>43167</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M49" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="M49" s="54">
+        <v>1</v>
       </c>
       <c r="N49" s="21">
-        <v>43174</v>
+        <v>43169</v>
       </c>
       <c r="O49" s="21">
-        <v>43174</v>
+        <v>43169</v>
       </c>
       <c r="P49" s="21">
-        <v>43175</v>
+        <v>43169</v>
       </c>
       <c r="Q49" s="22">
         <v>43175</v>
       </c>
-      <c r="R49" s="22"/>
+      <c r="R49" s="22">
+        <v>42773</v>
+      </c>
       <c r="S49" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="18">
         <v>2018</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F50" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G50" s="21">
-        <v>42892</v>
+        <v>41272</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J50" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K50" s="21">
-        <v>43151</v>
+        <v>43210</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M50" s="54" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="M50" s="54">
+        <v>2</v>
       </c>
       <c r="N50" s="21">
-        <v>43160</v>
+        <v>43210</v>
       </c>
       <c r="O50" s="21">
-        <v>43160</v>
+        <v>43210</v>
       </c>
       <c r="P50" s="21">
-        <v>43160</v>
+        <v>43210</v>
       </c>
       <c r="Q50" s="22">
-        <v>43167</v>
-      </c>
-      <c r="R50" s="22"/>
+        <v>43216</v>
+      </c>
+      <c r="R50" s="22">
+        <v>41996</v>
+      </c>
       <c r="S50" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19">
       <c r="A51" s="18">
         <v>2018</v>
       </c>
-      <c r="B51" s="55" t="s">
-        <v>91</v>
+      <c r="B51" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D51" s="56" t="s">
-        <v>89</v>
+        <v>193</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F51" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G51" s="21">
-        <v>36027</v>
+        <v>43013</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I51" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J51" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K51" s="21">
-        <v>43195</v>
+        <v>43208</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M51" s="54">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="M51" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="N51" s="21">
-        <v>43196</v>
+        <v>43210</v>
       </c>
       <c r="O51" s="21">
-        <v>43196</v>
+        <v>43210</v>
       </c>
       <c r="P51" s="21">
-        <v>43196</v>
+        <v>43210</v>
       </c>
       <c r="Q51" s="22">
-        <v>43202</v>
-      </c>
-      <c r="R51" s="22">
-        <v>36725</v>
-      </c>
+        <v>43216</v>
+      </c>
+      <c r="R51" s="22"/>
       <c r="S51" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19">
       <c r="A52" s="18">
         <v>2018</v>
       </c>
-      <c r="B52" s="55" t="s">
-        <v>91</v>
+      <c r="B52" s="18" t="s">
+        <v>93</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D52" s="56" t="s">
-        <v>89</v>
+        <v>193</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F52" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G52" s="21">
-        <v>39041</v>
+        <v>40768</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I52" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J52" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K52" s="21">
-        <v>43194</v>
+        <v>43207</v>
       </c>
       <c r="L52" s="19" t="s">
         <v>41</v>
@@ -7102,230 +7013,232 @@
         <v>2</v>
       </c>
       <c r="N52" s="21">
-        <v>43196</v>
+        <v>43208</v>
       </c>
       <c r="O52" s="21">
-        <v>43196</v>
+        <v>43209</v>
       </c>
       <c r="P52" s="21">
-        <v>43196</v>
+        <v>43208</v>
       </c>
       <c r="Q52" s="22">
-        <v>43202</v>
+        <v>43216</v>
       </c>
       <c r="R52" s="22">
-        <v>39770</v>
+        <v>41507</v>
       </c>
       <c r="S52" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="18">
         <v>2018</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F53" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G53" s="21">
-        <v>42704</v>
+        <v>43035</v>
       </c>
       <c r="H53" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J53" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K53" s="21">
-        <v>43195</v>
+        <v>43217</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M53" s="54">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="M53" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="N53" s="21">
-        <v>43196</v>
+        <v>43218</v>
       </c>
       <c r="O53" s="21">
-        <v>43196</v>
+        <v>43218</v>
       </c>
       <c r="P53" s="21">
-        <v>43199</v>
+        <v>43218</v>
       </c>
       <c r="Q53" s="22">
-        <v>43202</v>
+        <v>43224</v>
       </c>
       <c r="R53" s="22"/>
       <c r="S53" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="18">
         <v>2018</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="18" t="s">
         <v>91</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D54" s="56" t="s">
-        <v>89</v>
+        <v>193</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F54" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G54" s="21">
-        <v>42933</v>
+        <v>42037</v>
       </c>
       <c r="H54" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J54" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K54" s="21">
-        <v>43200</v>
+        <v>43216</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M54" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="M54" s="54">
+        <v>2</v>
       </c>
       <c r="N54" s="21">
-        <v>43201</v>
+        <v>43227</v>
       </c>
       <c r="O54" s="21">
-        <v>43202</v>
+        <v>43227</v>
       </c>
       <c r="P54" s="21">
-        <v>43202</v>
+        <v>43227</v>
       </c>
       <c r="Q54" s="22">
-        <v>43208</v>
-      </c>
-      <c r="R54" s="22"/>
+        <v>43230</v>
+      </c>
+      <c r="R54" s="22">
+        <v>42611</v>
+      </c>
       <c r="S54" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19">
       <c r="A55" s="18">
         <v>2018</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F55" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G55" s="21">
-        <v>42734</v>
+        <v>39882</v>
       </c>
       <c r="H55" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J55" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K55" s="21">
-        <v>43148</v>
+        <v>43158</v>
       </c>
       <c r="L55" s="19" t="s">
         <v>41</v>
       </c>
       <c r="M55" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55" s="21">
-        <v>43150</v>
+        <v>43164</v>
       </c>
       <c r="O55" s="21">
-        <v>43150</v>
+        <v>43164</v>
       </c>
       <c r="P55" s="21">
-        <v>43150</v>
+        <v>43164</v>
       </c>
       <c r="Q55" s="22">
-        <v>43154</v>
+        <v>43167</v>
       </c>
       <c r="R55" s="22">
-        <v>43090</v>
+        <v>41347</v>
       </c>
       <c r="S55" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19">
       <c r="A56" s="18">
         <v>2018</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F56" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G56" s="21">
-        <v>37715</v>
+        <v>41578</v>
       </c>
       <c r="H56" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I56" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J56" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K56" s="21">
-        <v>43150</v>
+        <v>43228</v>
       </c>
       <c r="L56" s="19" t="s">
         <v>41</v>
@@ -7334,929 +7247,341 @@
         <v>2</v>
       </c>
       <c r="N56" s="21">
-        <v>43153</v>
+        <v>43229</v>
       </c>
       <c r="O56" s="21">
-        <v>43153</v>
+        <v>43229</v>
       </c>
       <c r="P56" s="21">
-        <v>43153</v>
+        <v>43229</v>
       </c>
       <c r="Q56" s="22">
-        <v>43158</v>
+        <v>43234</v>
       </c>
       <c r="R56" s="22">
-        <v>38413</v>
+        <v>42114</v>
       </c>
       <c r="S56" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19">
       <c r="A57" s="18">
         <v>2018</v>
       </c>
       <c r="B57" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>101</v>
-      </c>
       <c r="E57" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F57" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G57" s="21">
-        <v>42398</v>
+        <v>42640</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I57" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J57" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K57" s="21">
+        <v>43243</v>
+      </c>
+      <c r="L57" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M57" s="54">
+        <v>2</v>
+      </c>
+      <c r="N57" s="21">
+        <v>43243</v>
+      </c>
+      <c r="O57" s="21">
+        <v>43243</v>
+      </c>
+      <c r="P57" s="21">
+        <v>43243</v>
+      </c>
+      <c r="Q57" s="22">
+        <v>43258</v>
+      </c>
+      <c r="R57" s="22">
         <v>43167</v>
-      </c>
-      <c r="L57" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M57" s="54">
-        <v>1</v>
-      </c>
-      <c r="N57" s="21">
-        <v>43169</v>
-      </c>
-      <c r="O57" s="21">
-        <v>43169</v>
-      </c>
-      <c r="P57" s="21">
-        <v>43169</v>
-      </c>
-      <c r="Q57" s="22">
-        <v>43175</v>
-      </c>
-      <c r="R57" s="22">
-        <v>42773</v>
       </c>
       <c r="S57" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19">
       <c r="A58" s="18">
         <v>2018</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E58" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F58" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G58" s="21">
-        <v>41272</v>
+        <v>42869</v>
       </c>
       <c r="H58" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I58" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J58" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K58" s="21">
-        <v>43210</v>
+        <v>43359</v>
       </c>
       <c r="L58" s="19" t="s">
         <v>41</v>
       </c>
       <c r="M58" s="54">
+        <v>1</v>
+      </c>
+      <c r="N58" s="21">
+        <v>43361</v>
+      </c>
+      <c r="O58" s="21">
+        <v>43361</v>
+      </c>
+      <c r="P58" s="21">
+        <v>43361</v>
+      </c>
+      <c r="Q58" s="22">
+        <v>43374</v>
+      </c>
+      <c r="R58" s="22">
+        <v>43237</v>
+      </c>
+      <c r="S58" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N58" s="21">
-        <v>43210</v>
-      </c>
-      <c r="O58" s="21">
-        <v>43210</v>
-      </c>
-      <c r="P58" s="21">
-        <v>43210</v>
-      </c>
-      <c r="Q58" s="22">
-        <v>43216</v>
-      </c>
-      <c r="R58" s="22">
-        <v>41996</v>
-      </c>
-      <c r="S58" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A59" s="18">
-        <v>2018</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59" s="21">
-        <v>43013</v>
-      </c>
-      <c r="H59" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="J59" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K59" s="21">
-        <v>43208</v>
-      </c>
-      <c r="L59" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M59" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N59" s="21">
-        <v>43210</v>
-      </c>
-      <c r="O59" s="21">
-        <v>43210</v>
-      </c>
-      <c r="P59" s="21">
-        <v>43210</v>
-      </c>
-      <c r="Q59" s="22">
-        <v>43216</v>
-      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="19">
+        <f>SUBTOTAL(103,table_case_based_data18[Reporting municipality])</f>
+        <v>45</v>
+      </c>
+      <c r="E59" s="20">
+        <f>SUBTOTAL(103,table_case_based_data18[Case ID])</f>
+        <v>45</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="22"/>
       <c r="R59" s="22"/>
-      <c r="S59" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A60" s="18">
-        <v>2018</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G60" s="21">
-        <v>40768</v>
-      </c>
-      <c r="H60" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="J60" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K60" s="21">
-        <v>43207</v>
-      </c>
-      <c r="L60" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M60" s="54">
-        <v>2</v>
-      </c>
-      <c r="N60" s="21">
-        <v>43208</v>
-      </c>
-      <c r="O60" s="21">
-        <v>43209</v>
-      </c>
-      <c r="P60" s="21">
-        <v>43208</v>
-      </c>
-      <c r="Q60" s="22">
-        <v>43216</v>
-      </c>
-      <c r="R60" s="22">
-        <v>41507</v>
-      </c>
-      <c r="S60" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="18">
-        <v>2018</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D61" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" s="21">
-        <v>43035</v>
-      </c>
-      <c r="H61" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="J61" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K61" s="21">
-        <v>43217</v>
-      </c>
-      <c r="L61" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M61" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N61" s="21">
-        <v>43218</v>
-      </c>
-      <c r="O61" s="21">
-        <v>43218</v>
-      </c>
-      <c r="P61" s="21">
-        <v>43218</v>
-      </c>
-      <c r="Q61" s="22">
-        <v>43224</v>
-      </c>
-      <c r="R61" s="22"/>
-      <c r="S61" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A62" s="18">
-        <v>2018</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G62" s="21">
-        <v>42037</v>
-      </c>
-      <c r="H62" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J62" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K62" s="21">
-        <v>43216</v>
-      </c>
-      <c r="L62" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M62" s="54">
-        <v>2</v>
-      </c>
-      <c r="N62" s="21">
-        <v>43227</v>
-      </c>
-      <c r="O62" s="21">
-        <v>43227</v>
-      </c>
-      <c r="P62" s="21">
-        <v>43227</v>
-      </c>
-      <c r="Q62" s="22">
-        <v>43230</v>
-      </c>
-      <c r="R62" s="22">
-        <v>42611</v>
-      </c>
-      <c r="S62" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A63" s="18">
-        <v>2018</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" s="21">
-        <v>43038</v>
-      </c>
-      <c r="H63" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="J63" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K63" s="21">
-        <v>43221</v>
-      </c>
-      <c r="L63" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M63" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N63" s="21">
-        <v>43222</v>
-      </c>
-      <c r="O63" s="21">
-        <v>43225</v>
-      </c>
-      <c r="P63" s="21">
-        <v>43225</v>
-      </c>
-      <c r="Q63" s="22">
-        <v>43230</v>
-      </c>
-      <c r="R63" s="22"/>
-      <c r="S63" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A64" s="18">
-        <v>2018</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G64" s="21">
-        <v>32665</v>
-      </c>
-      <c r="H64" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="J64" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K64" s="21">
-        <v>43143</v>
-      </c>
-      <c r="L64" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M64" s="54">
-        <v>2</v>
-      </c>
-      <c r="N64" s="21">
-        <v>43147</v>
-      </c>
-      <c r="O64" s="21">
-        <v>43153</v>
-      </c>
-      <c r="P64" s="21">
-        <v>43153</v>
-      </c>
-      <c r="Q64" s="22">
-        <v>43158</v>
-      </c>
-      <c r="R64" s="22"/>
-      <c r="S64" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A65" s="18">
-        <v>2018</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" s="21">
-        <v>39882</v>
-      </c>
-      <c r="H65" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="J65" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K65" s="21">
-        <v>43158</v>
-      </c>
-      <c r="L65" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M65" s="54">
-        <v>2</v>
-      </c>
-      <c r="N65" s="21">
-        <v>43164</v>
-      </c>
-      <c r="O65" s="21">
-        <v>43164</v>
-      </c>
-      <c r="P65" s="21">
-        <v>43164</v>
-      </c>
-      <c r="Q65" s="22">
-        <v>43167</v>
-      </c>
-      <c r="R65" s="22">
-        <v>41347</v>
-      </c>
-      <c r="S65" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A66" s="18">
-        <v>2018</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" s="21">
-        <v>41578</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="J66" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K66" s="21">
-        <v>43228</v>
-      </c>
-      <c r="L66" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M66" s="54">
-        <v>2</v>
-      </c>
-      <c r="N66" s="21">
-        <v>43229</v>
-      </c>
-      <c r="O66" s="21">
-        <v>43229</v>
-      </c>
-      <c r="P66" s="21">
-        <v>43229</v>
-      </c>
-      <c r="Q66" s="22">
-        <v>43234</v>
-      </c>
-      <c r="R66" s="22">
-        <v>42114</v>
-      </c>
-      <c r="S66" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A67" s="18">
-        <v>2018</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" s="21">
-        <v>42749</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="J67" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K67" s="21">
-        <v>43239</v>
-      </c>
-      <c r="L67" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M67" s="54">
-        <v>1</v>
-      </c>
-      <c r="N67" s="21">
-        <v>43239</v>
-      </c>
-      <c r="O67" s="21">
-        <v>43239</v>
-      </c>
-      <c r="P67" s="21">
-        <v>43239</v>
-      </c>
-      <c r="Q67" s="22">
-        <v>43291</v>
-      </c>
-      <c r="R67" s="22">
-        <v>43081</v>
-      </c>
-      <c r="S67" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A68" s="18">
-        <v>2018</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G68" s="21">
-        <v>42640</v>
-      </c>
-      <c r="H68" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I68" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="J68" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K68" s="21">
-        <v>43243</v>
-      </c>
-      <c r="L68" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M68" s="54">
-        <v>2</v>
-      </c>
-      <c r="N68" s="21">
-        <v>43243</v>
-      </c>
-      <c r="O68" s="21">
-        <v>43243</v>
-      </c>
-      <c r="P68" s="21">
-        <v>43243</v>
-      </c>
-      <c r="Q68" s="22">
-        <v>43258</v>
-      </c>
-      <c r="R68" s="22">
-        <v>43167</v>
-      </c>
-      <c r="S68" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A69" s="18">
-        <v>2018</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G69" s="21">
-        <v>42869</v>
-      </c>
-      <c r="H69" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="J69" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K69" s="21">
-        <v>43359</v>
-      </c>
-      <c r="L69" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M69" s="54">
-        <v>1</v>
-      </c>
-      <c r="N69" s="21">
-        <v>43361</v>
-      </c>
-      <c r="O69" s="21">
-        <v>43361</v>
-      </c>
-      <c r="P69" s="21">
-        <v>43361</v>
-      </c>
-      <c r="Q69" s="22">
-        <v>43374</v>
-      </c>
-      <c r="R69" s="22">
-        <v>43237</v>
-      </c>
-      <c r="S69" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A70" s="18">
-        <v>2018</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E70" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G70" s="21">
-        <v>43217</v>
-      </c>
-      <c r="H70" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I70" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="J70" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K70" s="21">
-        <v>43366</v>
-      </c>
-      <c r="L70" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M70" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="N70" s="21">
-        <v>43367</v>
-      </c>
-      <c r="O70" s="21">
-        <v>43367</v>
-      </c>
-      <c r="P70" s="21">
-        <v>43367</v>
-      </c>
-      <c r="Q70" s="22">
-        <v>43381</v>
-      </c>
-      <c r="R70" s="22"/>
-      <c r="S70" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A71" s="18">
-        <v>2018</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G71" s="21">
-        <v>41448</v>
-      </c>
-      <c r="H71" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I71" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="J71" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K71" s="21">
-        <v>43157</v>
-      </c>
-      <c r="L71" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M71" s="54">
-        <v>2</v>
-      </c>
-      <c r="N71" s="21">
-        <v>43160</v>
-      </c>
-      <c r="O71" s="21">
-        <v>43160</v>
-      </c>
-      <c r="P71" s="21">
-        <v>43160</v>
-      </c>
-      <c r="Q71" s="22">
-        <v>43167</v>
-      </c>
-      <c r="R71" s="22">
-        <v>42376</v>
-      </c>
-      <c r="S71" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A72" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="19">
-        <f>SUBTOTAL(103,table_case_based_data18[Reporting municipality])</f>
-        <v>58</v>
-      </c>
-      <c r="E72" s="20">
-        <f>SUBTOTAL(103,table_case_based_data18[Case ID])</f>
-        <v>58</v>
-      </c>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="22"/>
-      <c r="S72" s="19"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S59" s="19"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="G60" s="26"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="28"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="26"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="G61" s="26"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="28"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="26"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="G62" s="26"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="28"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="26"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="G63" s="26"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="28"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="26"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="G64" s="26"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="28"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="26"/>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="G65" s="26"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="28"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="26"/>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="G66" s="26"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="28"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="26"/>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="G67" s="26"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="28"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="26"/>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="G68" s="26"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="28"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="26"/>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="G69" s="26"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="28"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="26"/>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="G70" s="26"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="28"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="26"/>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="G71" s="26"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="28"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="26"/>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="G72" s="26"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="28"/>
+      <c r="M72" s="29"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="26"/>
+    </row>
+    <row r="73" spans="1:18">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="G73" s="26"/>
@@ -8269,7 +7594,7 @@
       <c r="Q73" s="28"/>
       <c r="R73" s="26"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="G74" s="26"/>
@@ -8282,7 +7607,7 @@
       <c r="Q74" s="28"/>
       <c r="R74" s="26"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="G75" s="26"/>
@@ -8295,7 +7620,7 @@
       <c r="Q75" s="28"/>
       <c r="R75" s="26"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="G76" s="26"/>
@@ -8308,7 +7633,7 @@
       <c r="Q76" s="28"/>
       <c r="R76" s="26"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="G77" s="26"/>
@@ -8321,7 +7646,7 @@
       <c r="Q77" s="28"/>
       <c r="R77" s="26"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="G78" s="26"/>
@@ -8334,7 +7659,7 @@
       <c r="Q78" s="28"/>
       <c r="R78" s="26"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="G79" s="26"/>
@@ -8347,7 +7672,7 @@
       <c r="Q79" s="28"/>
       <c r="R79" s="26"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="G80" s="26"/>
@@ -8360,7 +7685,7 @@
       <c r="Q80" s="28"/>
       <c r="R80" s="26"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="G81" s="26"/>
@@ -8373,7 +7698,7 @@
       <c r="Q81" s="28"/>
       <c r="R81" s="26"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="G82" s="26"/>
@@ -8386,7 +7711,7 @@
       <c r="Q82" s="28"/>
       <c r="R82" s="26"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="G83" s="26"/>
@@ -8399,7 +7724,7 @@
       <c r="Q83" s="28"/>
       <c r="R83" s="26"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="G84" s="26"/>
@@ -8412,7 +7737,7 @@
       <c r="Q84" s="28"/>
       <c r="R84" s="26"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="G85" s="26"/>
@@ -8425,7 +7750,7 @@
       <c r="Q85" s="28"/>
       <c r="R85" s="26"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="G86" s="26"/>
@@ -8438,7 +7763,7 @@
       <c r="Q86" s="28"/>
       <c r="R86" s="26"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="G87" s="26"/>
@@ -8451,7 +7776,7 @@
       <c r="Q87" s="28"/>
       <c r="R87" s="26"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="G88" s="26"/>
@@ -8464,7 +7789,7 @@
       <c r="Q88" s="28"/>
       <c r="R88" s="26"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="G89" s="26"/>
@@ -8477,7 +7802,7 @@
       <c r="Q89" s="28"/>
       <c r="R89" s="26"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="G90" s="26"/>
@@ -8490,7 +7815,7 @@
       <c r="Q90" s="28"/>
       <c r="R90" s="26"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="G91" s="26"/>
@@ -8503,7 +7828,7 @@
       <c r="Q91" s="28"/>
       <c r="R91" s="26"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="G92" s="26"/>
@@ -8516,7 +7841,7 @@
       <c r="Q92" s="28"/>
       <c r="R92" s="26"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="G93" s="26"/>
@@ -8529,7 +7854,7 @@
       <c r="Q93" s="28"/>
       <c r="R93" s="26"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="G94" s="26"/>
@@ -8542,7 +7867,7 @@
       <c r="Q94" s="28"/>
       <c r="R94" s="26"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="G95" s="26"/>
@@ -8555,7 +7880,7 @@
       <c r="Q95" s="28"/>
       <c r="R95" s="26"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="G96" s="26"/>
@@ -8568,7 +7893,7 @@
       <c r="Q96" s="28"/>
       <c r="R96" s="26"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="G97" s="26"/>
@@ -8581,7 +7906,7 @@
       <c r="Q97" s="28"/>
       <c r="R97" s="26"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="G98" s="26"/>
@@ -8594,7 +7919,7 @@
       <c r="Q98" s="28"/>
       <c r="R98" s="26"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="G99" s="26"/>
@@ -8606,175 +7931,6 @@
       <c r="P99" s="28"/>
       <c r="Q99" s="28"/>
       <c r="R99" s="26"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="G100" s="26"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="28"/>
-      <c r="M100" s="29"/>
-      <c r="N100" s="28"/>
-      <c r="O100" s="28"/>
-      <c r="P100" s="28"/>
-      <c r="Q100" s="28"/>
-      <c r="R100" s="26"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25"/>
-      <c r="G101" s="26"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="28"/>
-      <c r="M101" s="29"/>
-      <c r="N101" s="28"/>
-      <c r="O101" s="28"/>
-      <c r="P101" s="28"/>
-      <c r="Q101" s="28"/>
-      <c r="R101" s="26"/>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A102" s="25"/>
-      <c r="B102" s="25"/>
-      <c r="G102" s="26"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="28"/>
-      <c r="M102" s="29"/>
-      <c r="N102" s="28"/>
-      <c r="O102" s="28"/>
-      <c r="P102" s="28"/>
-      <c r="Q102" s="28"/>
-      <c r="R102" s="26"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A103" s="25"/>
-      <c r="B103" s="25"/>
-      <c r="G103" s="26"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="28"/>
-      <c r="M103" s="29"/>
-      <c r="N103" s="28"/>
-      <c r="O103" s="28"/>
-      <c r="P103" s="28"/>
-      <c r="Q103" s="28"/>
-      <c r="R103" s="26"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A104" s="25"/>
-      <c r="B104" s="25"/>
-      <c r="G104" s="26"/>
-      <c r="J104" s="27"/>
-      <c r="K104" s="28"/>
-      <c r="M104" s="29"/>
-      <c r="N104" s="28"/>
-      <c r="O104" s="28"/>
-      <c r="P104" s="28"/>
-      <c r="Q104" s="28"/>
-      <c r="R104" s="26"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A105" s="25"/>
-      <c r="B105" s="25"/>
-      <c r="G105" s="26"/>
-      <c r="J105" s="27"/>
-      <c r="K105" s="28"/>
-      <c r="M105" s="29"/>
-      <c r="N105" s="28"/>
-      <c r="O105" s="28"/>
-      <c r="P105" s="28"/>
-      <c r="Q105" s="28"/>
-      <c r="R105" s="26"/>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="G106" s="26"/>
-      <c r="J106" s="27"/>
-      <c r="K106" s="28"/>
-      <c r="M106" s="29"/>
-      <c r="N106" s="28"/>
-      <c r="O106" s="28"/>
-      <c r="P106" s="28"/>
-      <c r="Q106" s="28"/>
-      <c r="R106" s="26"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="G107" s="26"/>
-      <c r="J107" s="27"/>
-      <c r="K107" s="28"/>
-      <c r="M107" s="29"/>
-      <c r="N107" s="28"/>
-      <c r="O107" s="28"/>
-      <c r="P107" s="28"/>
-      <c r="Q107" s="28"/>
-      <c r="R107" s="26"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A108" s="25"/>
-      <c r="B108" s="25"/>
-      <c r="G108" s="26"/>
-      <c r="J108" s="27"/>
-      <c r="K108" s="28"/>
-      <c r="M108" s="29"/>
-      <c r="N108" s="28"/>
-      <c r="O108" s="28"/>
-      <c r="P108" s="28"/>
-      <c r="Q108" s="28"/>
-      <c r="R108" s="26"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
-      <c r="G109" s="26"/>
-      <c r="J109" s="27"/>
-      <c r="K109" s="28"/>
-      <c r="M109" s="29"/>
-      <c r="N109" s="28"/>
-      <c r="O109" s="28"/>
-      <c r="P109" s="28"/>
-      <c r="Q109" s="28"/>
-      <c r="R109" s="26"/>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A110" s="25"/>
-      <c r="B110" s="25"/>
-      <c r="G110" s="26"/>
-      <c r="J110" s="27"/>
-      <c r="K110" s="28"/>
-      <c r="M110" s="29"/>
-      <c r="N110" s="28"/>
-      <c r="O110" s="28"/>
-      <c r="P110" s="28"/>
-      <c r="Q110" s="28"/>
-      <c r="R110" s="26"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A111" s="25"/>
-      <c r="B111" s="25"/>
-      <c r="G111" s="26"/>
-      <c r="J111" s="27"/>
-      <c r="K111" s="28"/>
-      <c r="M111" s="29"/>
-      <c r="N111" s="28"/>
-      <c r="O111" s="28"/>
-      <c r="P111" s="28"/>
-      <c r="Q111" s="28"/>
-      <c r="R111" s="26"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A112" s="25"/>
-      <c r="B112" s="25"/>
-      <c r="G112" s="26"/>
-      <c r="J112" s="27"/>
-      <c r="K112" s="28"/>
-      <c r="M112" s="29"/>
-      <c r="N112" s="28"/>
-      <c r="O112" s="28"/>
-      <c r="P112" s="28"/>
-      <c r="Q112" s="28"/>
-      <c r="R112" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8789,37 +7945,37 @@
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="10">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a valid date" sqref="N73:R112 N14:R71" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a valid date" sqref="N60:R99 N14:R58" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>1</formula1>
       <formula2>73051</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F73:F112 F14:F71" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F60:F99 F14:F58" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>INDIRECT("tbl_final_classification[Final Classification]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H73:H112 H14:H71" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H60:H99 H14:H58" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>INDIRECT("tbl_sex[Sex]")</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A73:B112 B57:B71 A14:A71 B55" xr:uid="{00000000-0002-0000-0500-000003000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A60:B99 B47 B49:B58 A14:A58" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>1980</formula1>
       <formula2>2100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L73:L112 L14:L71 M15 M28 M30:M31 M33 M41 M45 M49 M54 M59 M61 M63 M70" xr:uid="{00000000-0002-0000-0500-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L60:L99 M14 M25 M27:M28 M30 M37 M41 M45 M51 M53 L14:L58" xr:uid="{00000000-0002-0000-0500-000004000000}">
       <formula1>INDIRECT("tbl_vaccination_status[Vaccination Status]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M73:M112 M14 M16:M27 M29 M32 M34:M40 M42:M44 M46:M48 M50:M53 M55:M58 M60 M62 M64:M69 M71" xr:uid="{00000000-0002-0000-0500-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M60:M99 M26 M29 M38:M40 M42:M44 M52 M54:M58 M46:M50 M31:M36 M15:M24" xr:uid="{00000000-0002-0000-0500-000005000000}">
       <formula1>INDIRECT("tbl_num_of_doses[Number Of Doses]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J73:J112 J14:J71" xr:uid="{00000000-0002-0000-0500-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J60:J99 J14:J58" xr:uid="{00000000-0002-0000-0500-000006000000}">
       <formula1>INDIRECT("tbl_Yes_No[Yes No]")</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a whole number" sqref="G73:G112 G14:G71" xr:uid="{00000000-0002-0000-0500-000007000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a whole number" sqref="G60:G99 G14:G58" xr:uid="{00000000-0002-0000-0500-000007000000}">
       <formula1>1</formula1>
       <formula2>73051</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S73:S112 S14:S71" xr:uid="{00000000-0002-0000-0500-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S60:S99 S14:S58" xr:uid="{00000000-0002-0000-0500-000008000000}">
       <formula1>INDIRECT("tbl_Travel_History[Travel History]")</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I73:I112" xr:uid="{00000000-0002-0000-0500-000009000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I60:I99" xr:uid="{00000000-0002-0000-0500-000009000000}">
       <formula1>1</formula1>
       <formula2>73051</formula2>
     </dataValidation>
@@ -8841,22 +7997,22 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="9.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="27" customWidth="1"/>
+    <col min="1" max="2" width="9.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="27" customWidth="1"/>
     <col min="5" max="5" width="24" style="27" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="27" customWidth="1"/>
-    <col min="7" max="16384" width="9.1640625" style="27"/>
+    <col min="6" max="6" width="33.453125" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="91.75" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="C1" s="39" t="s">
         <v>30</v>
@@ -8868,21 +8024,21 @@
         <v>61</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>91</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>41</v>
@@ -8891,18 +8047,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>41</v>
@@ -8911,18 +8067,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>41</v>
@@ -8931,18 +8087,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>41</v>
@@ -8951,18 +8107,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>41</v>
@@ -8971,18 +8127,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>41</v>
@@ -9007,23 +8163,23 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1796875" style="6" customWidth="1"/>
     <col min="3" max="3" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.1640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1796875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.453125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="6"/>
-    <col min="11" max="11" width="13.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -9043,7 +8199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -9063,7 +8219,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -9083,7 +8239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="8" t="s">
         <v>36</v>
       </c>
@@ -9097,7 +8253,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
@@ -9108,18 +8264,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="E6" s="8" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="E7" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="E8" s="6" t="s">
         <v>40</v>
       </c>

--- a/src/Data/country_data.xlsx
+++ b/src/Data/country_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5aee5c5b004427f/Documents/mr-risk-assessment/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{ECB9B45C-EA6E-2B4F-B642-69CC5184D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{475D494B-CA31-46EC-A12E-F66127501316}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{ECB9B45C-EA6E-2B4F-B642-69CC5184D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CDAE545-0498-478B-BFA1-6E1FC662BDE4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="773" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-General" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="229">
   <si>
     <t>Case ID</t>
   </si>
@@ -538,9 +538,6 @@
   </si>
   <si>
     <t>Presencia de áreas con eventos masivos  (p. ej., comercio, ferias, mercados, eventos deportivos, eventos religiosos) (Si/No)</t>
-  </si>
-  <si>
-    <t>Presencia de un equipo subnacional de respuesta rápida capacitado (Si/No)</t>
   </si>
   <si>
     <t>El número y el orden de las columnas de origen deben coincidir con las columnas de destino.</t>
@@ -681,6 +678,9 @@
     <t>Brote</t>
   </si>
   <si>
+    <t>Belice</t>
+  </si>
+  <si>
     <t>BLZ</t>
   </si>
   <si>
@@ -717,12 +717,30 @@
     <t>Toledo</t>
   </si>
   <si>
+    <t>18-057</t>
+  </si>
+  <si>
+    <t>San Mateo,</t>
+  </si>
+  <si>
     <t>18-054</t>
   </si>
   <si>
     <t>Bullet Tree Road,  -  San Ignacio</t>
   </si>
   <si>
+    <t>18-058</t>
+  </si>
+  <si>
+    <t>Cze caulker Village,</t>
+  </si>
+  <si>
+    <t>18-003</t>
+  </si>
+  <si>
+    <t>6 Baracuda St.,  -  Boca Del Toro</t>
+  </si>
+  <si>
     <t>18-004</t>
   </si>
   <si>
@@ -840,6 +858,12 @@
     <t>Silk Grass,</t>
   </si>
   <si>
+    <t>18-031</t>
+  </si>
+  <si>
+    <t>DFC Area,  -  San Pedro Town</t>
+  </si>
+  <si>
     <t>18-032</t>
   </si>
   <si>
@@ -897,12 +921,36 @@
     <t>Riversdale , Stann Creek -  Dangriga</t>
   </si>
   <si>
+    <t>18-035</t>
+  </si>
+  <si>
+    <t>67 Cor Vernon Jasmine,  -  Belize</t>
+  </si>
+  <si>
+    <t>18-041</t>
+  </si>
+  <si>
+    <t>329 Falcon St.,  -  Ladyville</t>
+  </si>
+  <si>
+    <t>18-042</t>
+  </si>
+  <si>
+    <t>,  -  Ladyville</t>
+  </si>
+  <si>
     <t>18-043</t>
   </si>
   <si>
     <t>Seinebight, Bella Vista Village -  Stan Creek</t>
   </si>
   <si>
+    <t>18-044</t>
+  </si>
+  <si>
+    <t>96 East Collet Canal,</t>
+  </si>
+  <si>
     <t>18-022</t>
   </si>
   <si>
@@ -951,6 +999,18 @@
     <t>Hills of Promise, Benque Viejo Town -  Cayo</t>
   </si>
   <si>
+    <t>18-050</t>
+  </si>
+  <si>
+    <t>#1 Lawrence Avenue, St. Martins</t>
+  </si>
+  <si>
+    <t>18-023</t>
+  </si>
+  <si>
+    <t>Boca del Rio,</t>
+  </si>
+  <si>
     <t>18-033</t>
   </si>
   <si>
@@ -963,6 +1023,12 @@
     <t>31 Riverside Street,</t>
   </si>
   <si>
+    <t>18-052</t>
+  </si>
+  <si>
+    <t>14   8th Street , Kings Park -  Belize City</t>
+  </si>
+  <si>
     <t>18-053</t>
   </si>
   <si>
@@ -975,6 +1041,18 @@
     <t>Melagoo, San Ignacio -  Cayo</t>
   </si>
   <si>
+    <t>18-056</t>
+  </si>
+  <si>
+    <t>42 St. Thomas Street, Caribbean Shores -  Belize</t>
+  </si>
+  <si>
+    <t>18-034</t>
+  </si>
+  <si>
+    <t>73 A West Street,  -  Belize</t>
+  </si>
+  <si>
     <t>Geocódigo Admin1</t>
   </si>
   <si>
@@ -1017,7 +1095,10 @@
     <t>Belize</t>
   </si>
   <si>
-    <t>ENG</t>
+    <t>SPA</t>
+  </si>
+  <si>
+    <t>Presencia de un equipo subnacional de respuesta rápida capacitado a nivel subnacional (Si/No)</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1109,7 @@
     <numFmt numFmtId="164" formatCode="#,##0;\-#,###;&quot;-&quot;"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1251,6 +1332,13 @@
       <color indexed="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1490,7 +1578,7 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1661,6 +1749,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="12" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2654,8 +2749,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="table_case_based_data18" displayName="table_case_based_data18" ref="A13:S59" totalsRowCount="1" headerRowDxfId="49" totalsRowDxfId="48">
-  <autoFilter ref="A13:S58" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="table_case_based_data18" displayName="table_case_based_data18" ref="A13:S72" totalsRowCount="1" headerRowDxfId="49" totalsRowDxfId="48">
+  <autoFilter ref="A13:S71" xr:uid="{00000000-0009-0000-0100-000011000000}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year" totalsRowLabel="Total" dataDxfId="47" totalsRowDxfId="46"/>
     <tableColumn id="5" xr3:uid="{832308A3-6DE1-5740-B797-21A881936E5D}" name="Admin2 geo codes" totalsRowDxfId="45"/>
@@ -3041,8 +3136,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -3056,7 +3151,7 @@
       <c r="A1" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="57" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3065,7 +3160,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3073,7 +3168,7 @@
         <v>43</v>
       </c>
       <c r="B3" s="4">
-        <v>2019</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3089,7 +3184,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="4">
-        <v>2005</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3110,7 +3205,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
@@ -3118,10 +3213,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3157,10 +3252,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>30</v>
@@ -3183,10 +3278,10 @@
         <v>90</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="E2" s="51">
         <v>120600</v>
@@ -3203,10 +3298,10 @@
         <v>91</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="E3" s="52">
         <v>96197</v>
@@ -3223,10 +3318,10 @@
         <v>93</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="E4" s="52">
         <v>48429</v>
@@ -3243,10 +3338,10 @@
         <v>95</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="E5" s="52">
         <v>51749</v>
@@ -3263,10 +3358,10 @@
         <v>97</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="E6" s="52">
         <v>43944</v>
@@ -3283,10 +3378,10 @@
         <v>99</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="E7" s="52">
         <v>37614</v>
@@ -3308,8 +3403,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -3331,82 +3426,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="61" customHeight="1">
-      <c r="A1" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="60" t="s">
+      <c r="A1" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="58" t="s">
-        <v>191</v>
+      <c r="E1" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="60" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
       <c r="E2" s="40">
         <f>'1-General'!$B$3-5</f>
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="F2" s="40">
         <f>'1-General'!$B$3-4</f>
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="G2" s="40">
         <f>'1-General'!$B$3-3</f>
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="H2" s="40">
         <f>'1-General'!$B$3-2</f>
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="I2" s="40">
         <f>'1-General'!$B$3-1</f>
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="J2" s="40">
         <f>'1-General'!$B$3-5</f>
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="K2" s="40">
         <f>'1-General'!$B$3-4</f>
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="L2" s="40">
         <f>'1-General'!$B$3-3</f>
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="M2" s="40">
         <f>'1-General'!$B$3-2</f>
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="N2" s="40">
         <f>'1-General'!$B$3-1</f>
-        <v>2018</v>
-      </c>
-      <c r="O2" s="59"/>
+        <v>2023</v>
+      </c>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="44" t="s">
@@ -3416,10 +3511,10 @@
         <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="E3" s="31">
         <v>97</v>
@@ -3463,10 +3558,10 @@
         <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="E4" s="31">
         <v>94</v>
@@ -3510,10 +3605,10 @@
         <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="E5" s="31">
         <v>95</v>
@@ -3557,10 +3652,10 @@
         <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="E6" s="31">
         <v>96</v>
@@ -3604,10 +3699,10 @@
         <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="E7" s="31">
         <v>94</v>
@@ -3651,10 +3746,10 @@
         <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="E8" s="31">
         <v>96</v>
@@ -3714,7 +3809,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -3732,16 +3827,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="58" customHeight="1">
-      <c r="A1" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="61" t="s">
+      <c r="A1" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="63" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="35" t="s">
@@ -3761,29 +3856,29 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="37">
         <f>'1-General'!$B$3-1</f>
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="F2" s="37">
         <f>'1-General'!$B$3-1</f>
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="G2" s="36">
         <f>'1-General'!$B$3-1</f>
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="H2" s="38">
         <f>'1-General'!$B$3-1</f>
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="I2" s="38">
         <f>'1-General'!$B$3-1</f>
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="20.25" customHeight="1">
@@ -3794,10 +3889,10 @@
         <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="E3" s="31">
         <v>1839</v>
@@ -3825,10 +3920,10 @@
         <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="E4" s="31">
         <v>1636</v>
@@ -3856,10 +3951,10 @@
         <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="E5" s="31">
         <v>717</v>
@@ -3887,10 +3982,10 @@
         <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="E6" s="31">
         <v>1025</v>
@@ -3918,10 +4013,10 @@
         <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="E7" s="31">
         <v>979</v>
@@ -3949,10 +4044,10 @@
         <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="E8" s="31">
         <v>597</v>
@@ -4012,16 +4107,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="112.5" customHeight="1">
-      <c r="A1" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" s="61" t="s">
+      <c r="A1" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="63" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="35" t="s">
@@ -4050,41 +4145,41 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="29" customHeight="1">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="34">
         <f>'1-General'!$B$3-1</f>
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="F2" s="34">
         <f>'1-General'!$B$3-1</f>
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="G2" s="34">
         <f>'1-General'!$B$3-1</f>
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="H2" s="34">
         <f>'1-General'!$B$3-1</f>
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="I2" s="34">
         <f>'1-General'!$B$3-1</f>
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="J2" s="34">
         <f>'1-General'!$B$3-1</f>
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="K2" s="34">
         <f>'1-General'!$B$3-1</f>
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="L2" s="34">
         <f>'1-General'!$B$3-1</f>
-        <v>2018</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4095,10 +4190,10 @@
         <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>41</v>
@@ -4133,10 +4228,10 @@
         <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="E4" s="31" t="s">
         <v>41</v>
@@ -4171,10 +4266,10 @@
         <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>41</v>
@@ -4209,10 +4304,10 @@
         <v>95</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>41</v>
@@ -4247,10 +4342,10 @@
         <v>97</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>41</v>
@@ -4285,10 +4380,10 @@
         <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>41</v>
@@ -4334,10 +4429,10 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S99"/>
+  <dimension ref="A1:S112"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="109" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="G8" zoomScale="109" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -4370,17 +4465,17 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
+      <c r="F1" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
       <c r="O1" s="9"/>
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
@@ -4393,17 +4488,17 @@
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
+      <c r="F2" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
       <c r="O2" s="6"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -4415,21 +4510,21 @@
       <c r="B3" s="6"/>
       <c r="C3" s="17" t="str">
         <f>_xlfn.CONCAT("Casos  - ", '1-General'!$B$3-1)</f>
-        <v>Casos  - 2018</v>
+        <v>Casos  - 2023</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
+      <c r="F3" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
       <c r="O3" s="6"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -4442,17 +4537,17 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
+      <c r="F4" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
       <c r="O4" s="6"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -4465,17 +4560,17 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
+      <c r="F5" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
       <c r="O5" s="6"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -4488,17 +4583,17 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
+      <c r="F6" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
       <c r="O6" s="6"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -4511,15 +4606,15 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
       <c r="O7" s="6"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -4532,15 +4627,15 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
       <c r="O8" s="6"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -4570,69 +4665,69 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="15" t="s">
-        <v>66</v>
-      </c>
       <c r="H10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="16" t="s">
+      <c r="L10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="16" t="s">
+      <c r="O10" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="P10" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>66</v>
-      </c>
       <c r="Q10" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R10" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S10" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
@@ -4644,46 +4739,46 @@
         <v>0</v>
       </c>
       <c r="F11" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -4771,13 +4866,13 @@
         <v>2018</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E14" s="20" t="s">
         <v>101</v>
@@ -4786,7 +4881,7 @@
         <v>36</v>
       </c>
       <c r="G14" s="21">
-        <v>43125</v>
+        <v>34079</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>10</v>
@@ -4798,25 +4893,25 @@
         <v>41</v>
       </c>
       <c r="K14" s="21">
-        <v>43285</v>
+        <v>43450</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="M14" s="54" t="s">
+        <v>39</v>
       </c>
       <c r="N14" s="21">
-        <v>43287</v>
+        <v>43451</v>
       </c>
       <c r="O14" s="21">
-        <v>43287</v>
+        <v>43452</v>
       </c>
       <c r="P14" s="21">
-        <v>43287</v>
+        <v>43452</v>
       </c>
       <c r="Q14" s="22">
-        <v>43297</v>
+        <v>43472</v>
       </c>
       <c r="R14" s="22"/>
       <c r="S14" s="19" t="s">
@@ -4831,7 +4926,7 @@
         <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>92</v>
@@ -4843,10 +4938,10 @@
         <v>36</v>
       </c>
       <c r="G15" s="21">
-        <v>38887</v>
+        <v>43125</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>104</v>
@@ -4855,31 +4950,29 @@
         <v>41</v>
       </c>
       <c r="K15" s="21">
-        <v>43133</v>
+        <v>43285</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="54">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="N15" s="21">
-        <v>43137</v>
+        <v>43287</v>
       </c>
       <c r="O15" s="21">
-        <v>43137</v>
+        <v>43287</v>
       </c>
       <c r="P15" s="21">
-        <v>43137</v>
+        <v>43287</v>
       </c>
       <c r="Q15" s="22">
-        <v>43147</v>
-      </c>
-      <c r="R15" s="22">
-        <v>40837</v>
-      </c>
+        <v>43297</v>
+      </c>
+      <c r="R15" s="22"/>
       <c r="S15" s="19" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -4887,13 +4980,13 @@
         <v>2018</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>105</v>
@@ -4902,41 +4995,39 @@
         <v>36</v>
       </c>
       <c r="G16" s="21">
-        <v>39817</v>
+        <v>35120</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K16" s="21">
-        <v>43137</v>
+        <v>43451</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="54">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="M16" s="54" t="s">
+        <v>39</v>
       </c>
       <c r="N16" s="21">
-        <v>43137</v>
+        <v>43451</v>
       </c>
       <c r="O16" s="21">
-        <v>43137</v>
+        <v>43455</v>
       </c>
       <c r="P16" s="21">
-        <v>43137</v>
+        <v>43455</v>
       </c>
       <c r="Q16" s="22">
-        <v>43147</v>
-      </c>
-      <c r="R16" s="22">
-        <v>40578</v>
-      </c>
+        <v>43472</v>
+      </c>
+      <c r="R16" s="22"/>
       <c r="S16" s="19" t="s">
         <v>11</v>
       </c>
@@ -4946,28 +5037,28 @@
         <v>2018</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="21">
-        <v>30511</v>
+        <v>42545</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J17" s="19" t="s">
         <v>41</v>
@@ -4976,26 +5067,26 @@
         <v>43133</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="54" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="M17" s="54">
+        <v>0</v>
       </c>
       <c r="N17" s="21">
-        <v>43137</v>
+        <v>43136</v>
       </c>
       <c r="O17" s="21">
-        <v>43137</v>
+        <v>43136</v>
       </c>
       <c r="P17" s="21">
-        <v>43137</v>
+        <v>43136</v>
       </c>
       <c r="Q17" s="22">
-        <v>43147</v>
+        <v>43140</v>
       </c>
       <c r="R17" s="22"/>
       <c r="S17" s="19" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -5003,54 +5094,56 @@
         <v>2018</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F18" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G18" s="21">
-        <v>41280</v>
+        <v>38887</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J18" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K18" s="21">
-        <v>43129</v>
+        <v>43133</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="M18" s="54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18" s="21">
-        <v>43130</v>
+        <v>43137</v>
       </c>
       <c r="O18" s="21">
-        <v>43130</v>
+        <v>43137</v>
       </c>
       <c r="P18" s="21">
-        <v>43130</v>
+        <v>43137</v>
       </c>
       <c r="Q18" s="22">
-        <v>43136</v>
-      </c>
-      <c r="R18" s="22"/>
+        <v>43147</v>
+      </c>
+      <c r="R18" s="22">
+        <v>40837</v>
+      </c>
       <c r="S18" s="19" t="s">
         <v>39</v>
       </c>
@@ -5063,22 +5156,22 @@
         <v>91</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>92</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F19" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="21">
-        <v>39011</v>
+        <v>39817</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I19" s="19" t="s">
         <v>110</v>
@@ -5087,7 +5180,7 @@
         <v>41</v>
       </c>
       <c r="K19" s="21">
-        <v>43133</v>
+        <v>43137</v>
       </c>
       <c r="L19" s="19" t="s">
         <v>41</v>
@@ -5108,7 +5201,7 @@
         <v>43147</v>
       </c>
       <c r="R19" s="22">
-        <v>40477</v>
+        <v>40578</v>
       </c>
       <c r="S19" s="19" t="s">
         <v>11</v>
@@ -5122,31 +5215,31 @@
         <v>91</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>92</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="21">
-        <v>41166</v>
+        <v>30511</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K20" s="21">
-        <v>43137</v>
+        <v>43133</v>
       </c>
       <c r="L20" s="19" t="s">
         <v>39</v>
@@ -5176,28 +5269,28 @@
         <v>2018</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G21" s="21">
-        <v>36880</v>
+        <v>41280</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J21" s="19" t="s">
         <v>41</v>
@@ -5206,26 +5299,26 @@
         <v>43129</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="54" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="M21" s="54">
+        <v>0</v>
       </c>
       <c r="N21" s="21">
-        <v>43137</v>
+        <v>43130</v>
       </c>
       <c r="O21" s="21">
-        <v>43137</v>
+        <v>43130</v>
       </c>
       <c r="P21" s="21">
-        <v>43137</v>
+        <v>43130</v>
       </c>
       <c r="Q21" s="22">
-        <v>43147</v>
+        <v>43136</v>
       </c>
       <c r="R21" s="22"/>
       <c r="S21" s="19" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -5233,58 +5326,58 @@
         <v>2018</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G22" s="21">
-        <v>42668</v>
+        <v>39011</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J22" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K22" s="21">
-        <v>43129</v>
+        <v>43133</v>
       </c>
       <c r="L22" s="19" t="s">
         <v>41</v>
       </c>
       <c r="M22" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" s="21">
-        <v>43130</v>
+        <v>43137</v>
       </c>
       <c r="O22" s="21">
-        <v>43130</v>
+        <v>43137</v>
       </c>
       <c r="P22" s="21">
-        <v>43130</v>
+        <v>43137</v>
       </c>
       <c r="Q22" s="22">
-        <v>43136</v>
+        <v>43147</v>
       </c>
       <c r="R22" s="22">
-        <v>43039</v>
+        <v>40477</v>
       </c>
       <c r="S22" s="19" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -5295,53 +5388,51 @@
         <v>91</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D23" s="19" t="s">
         <v>92</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F23" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="21">
-        <v>42656</v>
+        <v>41166</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K23" s="21">
-        <v>43134</v>
+        <v>43137</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M23" s="54">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="M23" s="54" t="s">
+        <v>39</v>
       </c>
       <c r="N23" s="21">
-        <v>43139</v>
+        <v>43137</v>
       </c>
       <c r="O23" s="21">
-        <v>43139</v>
+        <v>43137</v>
       </c>
       <c r="P23" s="21">
-        <v>43139</v>
+        <v>43137</v>
       </c>
       <c r="Q23" s="22">
-        <v>43151</v>
-      </c>
-      <c r="R23" s="22">
-        <v>43027</v>
-      </c>
+        <v>43147</v>
+      </c>
+      <c r="R23" s="22"/>
       <c r="S23" s="19" t="s">
         <v>11</v>
       </c>
@@ -5351,13 +5442,13 @@
         <v>2018</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>118</v>
@@ -5366,7 +5457,7 @@
         <v>36</v>
       </c>
       <c r="G24" s="21">
-        <v>42812</v>
+        <v>36880</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>10</v>
@@ -5378,25 +5469,25 @@
         <v>41</v>
       </c>
       <c r="K24" s="21">
-        <v>43138</v>
+        <v>43129</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="54">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="M24" s="54" t="s">
+        <v>39</v>
       </c>
       <c r="N24" s="21">
-        <v>43139</v>
+        <v>43137</v>
       </c>
       <c r="O24" s="21">
-        <v>43139</v>
+        <v>43137</v>
       </c>
       <c r="P24" s="21">
-        <v>43139</v>
+        <v>43137</v>
       </c>
       <c r="Q24" s="22">
-        <v>43151</v>
+        <v>43147</v>
       </c>
       <c r="R24" s="22"/>
       <c r="S24" s="19" t="s">
@@ -5408,13 +5499,13 @@
         <v>2018</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>120</v>
@@ -5423,7 +5514,7 @@
         <v>36</v>
       </c>
       <c r="G25" s="21">
-        <v>42982</v>
+        <v>42668</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>10</v>
@@ -5435,29 +5526,31 @@
         <v>41</v>
       </c>
       <c r="K25" s="21">
-        <v>43143</v>
+        <v>43129</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="M25" s="54">
+        <v>1</v>
       </c>
       <c r="N25" s="21">
-        <v>43144</v>
+        <v>43130</v>
       </c>
       <c r="O25" s="21">
-        <v>43151</v>
+        <v>43130</v>
       </c>
       <c r="P25" s="21">
-        <v>43151</v>
+        <v>43130</v>
       </c>
       <c r="Q25" s="22">
-        <v>43153</v>
-      </c>
-      <c r="R25" s="22"/>
+        <v>43136</v>
+      </c>
+      <c r="R25" s="22">
+        <v>43039</v>
+      </c>
       <c r="S25" s="19" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -5465,13 +5558,13 @@
         <v>2018</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>122</v>
@@ -5480,7 +5573,7 @@
         <v>36</v>
       </c>
       <c r="G26" s="21">
-        <v>42697</v>
+        <v>42656</v>
       </c>
       <c r="H26" s="19" t="s">
         <v>10</v>
@@ -5492,7 +5585,7 @@
         <v>41</v>
       </c>
       <c r="K26" s="21">
-        <v>43139</v>
+        <v>43134</v>
       </c>
       <c r="L26" s="19" t="s">
         <v>41</v>
@@ -5504,16 +5597,16 @@
         <v>43139</v>
       </c>
       <c r="O26" s="21">
-        <v>43144</v>
+        <v>43139</v>
       </c>
       <c r="P26" s="21">
-        <v>43144</v>
+        <v>43139</v>
       </c>
       <c r="Q26" s="22">
         <v>43151</v>
       </c>
       <c r="R26" s="22">
-        <v>43068</v>
+        <v>43027</v>
       </c>
       <c r="S26" s="19" t="s">
         <v>11</v>
@@ -5524,13 +5617,13 @@
         <v>2018</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>124</v>
@@ -5539,7 +5632,7 @@
         <v>36</v>
       </c>
       <c r="G27" s="21">
-        <v>42805</v>
+        <v>42812</v>
       </c>
       <c r="H27" s="19" t="s">
         <v>10</v>
@@ -5551,22 +5644,22 @@
         <v>41</v>
       </c>
       <c r="K27" s="21">
-        <v>43141</v>
+        <v>43138</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="19" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="M27" s="54">
+        <v>0</v>
       </c>
       <c r="N27" s="21">
-        <v>43142</v>
+        <v>43139</v>
       </c>
       <c r="O27" s="21">
-        <v>43144</v>
+        <v>43139</v>
       </c>
       <c r="P27" s="21">
-        <v>43144</v>
+        <v>43139</v>
       </c>
       <c r="Q27" s="22">
         <v>43151</v>
@@ -5584,7 +5677,7 @@
         <v>99</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>100</v>
@@ -5608,7 +5701,7 @@
         <v>41</v>
       </c>
       <c r="K28" s="21">
-        <v>43144</v>
+        <v>43143</v>
       </c>
       <c r="L28" s="19" t="s">
         <v>40</v>
@@ -5617,13 +5710,13 @@
         <v>40</v>
       </c>
       <c r="N28" s="21">
-        <v>43147</v>
+        <v>43144</v>
       </c>
       <c r="O28" s="21">
-        <v>43150</v>
+        <v>43151</v>
       </c>
       <c r="P28" s="21">
-        <v>43150</v>
+        <v>43151</v>
       </c>
       <c r="Q28" s="22">
         <v>43153</v>
@@ -5638,13 +5731,13 @@
         <v>2018</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E29" s="20" t="s">
         <v>128</v>
@@ -5653,7 +5746,7 @@
         <v>36</v>
       </c>
       <c r="G29" s="21">
-        <v>42472</v>
+        <v>42697</v>
       </c>
       <c r="H29" s="19" t="s">
         <v>10</v>
@@ -5665,7 +5758,7 @@
         <v>41</v>
       </c>
       <c r="K29" s="21">
-        <v>43135</v>
+        <v>43139</v>
       </c>
       <c r="L29" s="19" t="s">
         <v>41</v>
@@ -5677,16 +5770,16 @@
         <v>43139</v>
       </c>
       <c r="O29" s="21">
-        <v>43139</v>
+        <v>43144</v>
       </c>
       <c r="P29" s="21">
-        <v>43139</v>
+        <v>43144</v>
       </c>
       <c r="Q29" s="22">
         <v>43151</v>
       </c>
       <c r="R29" s="22">
-        <v>42891</v>
+        <v>43068</v>
       </c>
       <c r="S29" s="19" t="s">
         <v>11</v>
@@ -5697,13 +5790,13 @@
         <v>2018</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E30" s="20" t="s">
         <v>130</v>
@@ -5712,7 +5805,7 @@
         <v>36</v>
       </c>
       <c r="G30" s="21">
-        <v>42943</v>
+        <v>42805</v>
       </c>
       <c r="H30" s="19" t="s">
         <v>10</v>
@@ -5724,7 +5817,7 @@
         <v>41</v>
       </c>
       <c r="K30" s="21">
-        <v>43154</v>
+        <v>43141</v>
       </c>
       <c r="L30" s="19" t="s">
         <v>40</v>
@@ -5733,16 +5826,16 @@
         <v>40</v>
       </c>
       <c r="N30" s="21">
-        <v>43157</v>
+        <v>43142</v>
       </c>
       <c r="O30" s="21">
-        <v>43157</v>
+        <v>43144</v>
       </c>
       <c r="P30" s="21">
-        <v>43157</v>
+        <v>43144</v>
       </c>
       <c r="Q30" s="22">
-        <v>43168</v>
+        <v>43151</v>
       </c>
       <c r="R30" s="22"/>
       <c r="S30" s="19" t="s">
@@ -5754,13 +5847,13 @@
         <v>2018</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>132</v>
@@ -5769,7 +5862,7 @@
         <v>36</v>
       </c>
       <c r="G31" s="21">
-        <v>42730</v>
+        <v>42982</v>
       </c>
       <c r="H31" s="19" t="s">
         <v>10</v>
@@ -5781,25 +5874,25 @@
         <v>41</v>
       </c>
       <c r="K31" s="21">
-        <v>43155</v>
+        <v>43144</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M31" s="54" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="N31" s="21">
-        <v>43155</v>
+        <v>43147</v>
       </c>
       <c r="O31" s="21">
-        <v>43155</v>
+        <v>43150</v>
       </c>
       <c r="P31" s="21">
-        <v>43155</v>
+        <v>43150</v>
       </c>
       <c r="Q31" s="22">
-        <v>43168</v>
+        <v>43153</v>
       </c>
       <c r="R31" s="22"/>
       <c r="S31" s="19" t="s">
@@ -5811,13 +5904,13 @@
         <v>2018</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>134</v>
@@ -5826,10 +5919,10 @@
         <v>36</v>
       </c>
       <c r="G32" s="21">
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I32" s="19" t="s">
         <v>135</v>
@@ -5838,28 +5931,28 @@
         <v>41</v>
       </c>
       <c r="K32" s="21">
-        <v>43149</v>
+        <v>43135</v>
       </c>
       <c r="L32" s="19" t="s">
         <v>41</v>
       </c>
       <c r="M32" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32" s="21">
+        <v>43139</v>
+      </c>
+      <c r="O32" s="21">
+        <v>43139</v>
+      </c>
+      <c r="P32" s="21">
+        <v>43139</v>
+      </c>
+      <c r="Q32" s="22">
         <v>43151</v>
       </c>
-      <c r="O32" s="21">
-        <v>43153</v>
-      </c>
-      <c r="P32" s="21">
-        <v>43153</v>
-      </c>
-      <c r="Q32" s="22">
-        <v>43168</v>
-      </c>
       <c r="R32" s="22">
-        <v>43025</v>
+        <v>42891</v>
       </c>
       <c r="S32" s="19" t="s">
         <v>11</v>
@@ -5870,13 +5963,13 @@
         <v>2018</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>136</v>
@@ -5885,10 +5978,10 @@
         <v>36</v>
       </c>
       <c r="G33" s="21">
-        <v>42492</v>
+        <v>42943</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I33" s="19" t="s">
         <v>137</v>
@@ -5897,29 +5990,27 @@
         <v>41</v>
       </c>
       <c r="K33" s="21">
-        <v>43153</v>
+        <v>43154</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M33" s="54">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="N33" s="21">
-        <v>43153</v>
+        <v>43157</v>
       </c>
       <c r="O33" s="21">
-        <v>43153</v>
+        <v>43157</v>
       </c>
       <c r="P33" s="21">
-        <v>43153</v>
+        <v>43157</v>
       </c>
       <c r="Q33" s="22">
         <v>43168</v>
       </c>
-      <c r="R33" s="22">
-        <v>43133</v>
-      </c>
+      <c r="R33" s="22"/>
       <c r="S33" s="19" t="s">
         <v>11</v>
       </c>
@@ -5929,13 +6020,13 @@
         <v>2018</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>138</v>
@@ -5944,7 +6035,7 @@
         <v>36</v>
       </c>
       <c r="G34" s="21">
-        <v>42620</v>
+        <v>42730</v>
       </c>
       <c r="H34" s="19" t="s">
         <v>10</v>
@@ -5959,26 +6050,24 @@
         <v>43155</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M34" s="54">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="M34" s="54" t="s">
+        <v>39</v>
       </c>
       <c r="N34" s="21">
-        <v>43156</v>
+        <v>43155</v>
       </c>
       <c r="O34" s="21">
-        <v>43156</v>
+        <v>43155</v>
       </c>
       <c r="P34" s="21">
-        <v>43156</v>
+        <v>43155</v>
       </c>
       <c r="Q34" s="22">
         <v>43168</v>
       </c>
-      <c r="R34" s="22">
-        <v>43076</v>
-      </c>
+      <c r="R34" s="22"/>
       <c r="S34" s="19" t="s">
         <v>11</v>
       </c>
@@ -5991,7 +6080,7 @@
         <v>97</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D35" s="19" t="s">
         <v>98</v>
@@ -6003,10 +6092,10 @@
         <v>36</v>
       </c>
       <c r="G35" s="21">
-        <v>42685</v>
+        <v>42471</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I35" s="19" t="s">
         <v>141</v>
@@ -6015,28 +6104,28 @@
         <v>41</v>
       </c>
       <c r="K35" s="21">
+        <v>43149</v>
+      </c>
+      <c r="L35" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="54">
+        <v>2</v>
+      </c>
+      <c r="N35" s="21">
+        <v>43151</v>
+      </c>
+      <c r="O35" s="21">
         <v>43153</v>
       </c>
-      <c r="L35" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M35" s="54">
-        <v>1</v>
-      </c>
-      <c r="N35" s="21">
-        <v>43157</v>
-      </c>
-      <c r="O35" s="21">
-        <v>43157</v>
-      </c>
       <c r="P35" s="21">
-        <v>43159</v>
+        <v>43153</v>
       </c>
       <c r="Q35" s="22">
         <v>43168</v>
       </c>
       <c r="R35" s="22">
-        <v>43128</v>
+        <v>43025</v>
       </c>
       <c r="S35" s="19" t="s">
         <v>11</v>
@@ -6047,13 +6136,13 @@
         <v>2018</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>142</v>
@@ -6062,13 +6151,13 @@
         <v>36</v>
       </c>
       <c r="G36" s="21">
-        <v>35212</v>
+        <v>42492</v>
       </c>
       <c r="H36" s="19" t="s">
         <v>9</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J36" s="19" t="s">
         <v>41</v>
@@ -6077,24 +6166,26 @@
         <v>43153</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="M36" s="54" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="M36" s="54">
+        <v>1</v>
       </c>
       <c r="N36" s="21">
-        <v>43157</v>
+        <v>43153</v>
       </c>
       <c r="O36" s="21">
-        <v>43157</v>
+        <v>43153</v>
       </c>
       <c r="P36" s="21">
-        <v>43157</v>
+        <v>43153</v>
       </c>
       <c r="Q36" s="22">
         <v>43168</v>
       </c>
-      <c r="R36" s="22"/>
+      <c r="R36" s="22">
+        <v>43133</v>
+      </c>
       <c r="S36" s="19" t="s">
         <v>11</v>
       </c>
@@ -6107,51 +6198,53 @@
         <v>99</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D37" s="19" t="s">
         <v>100</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G37" s="21">
-        <v>42942</v>
+        <v>42620</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J37" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K37" s="21">
-        <v>43136</v>
+        <v>43155</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M37" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="M37" s="54">
+        <v>1</v>
       </c>
       <c r="N37" s="21">
-        <v>43137</v>
+        <v>43156</v>
       </c>
       <c r="O37" s="21">
-        <v>43137</v>
+        <v>43156</v>
       </c>
       <c r="P37" s="21">
-        <v>43137</v>
+        <v>43156</v>
       </c>
       <c r="Q37" s="22">
-        <v>43147</v>
-      </c>
-      <c r="R37" s="22"/>
+        <v>43168</v>
+      </c>
+      <c r="R37" s="22">
+        <v>43076</v>
+      </c>
       <c r="S37" s="19" t="s">
         <v>11</v>
       </c>
@@ -6161,55 +6254,55 @@
         <v>2018</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F38" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G38" s="21">
-        <v>42558</v>
+        <v>42685</v>
       </c>
       <c r="H38" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J38" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K38" s="21">
-        <v>43150</v>
+        <v>43153</v>
       </c>
       <c r="L38" s="19" t="s">
         <v>41</v>
       </c>
       <c r="M38" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38" s="21">
-        <v>43150</v>
+        <v>43157</v>
       </c>
       <c r="O38" s="21">
-        <v>43150</v>
+        <v>43157</v>
       </c>
       <c r="P38" s="21">
-        <v>43150</v>
+        <v>43159</v>
       </c>
       <c r="Q38" s="22">
-        <v>43154</v>
+        <v>43168</v>
       </c>
       <c r="R38" s="22">
-        <v>43104</v>
+        <v>43128</v>
       </c>
       <c r="S38" s="19" t="s">
         <v>11</v>
@@ -6220,56 +6313,54 @@
         <v>2018</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E39" s="20" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F39" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G39" s="21">
-        <v>41189</v>
+        <v>42891</v>
       </c>
       <c r="H39" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J39" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K39" s="21">
-        <v>43166</v>
+        <v>43156</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="M39" s="54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N39" s="21">
-        <v>43169</v>
+        <v>43158</v>
       </c>
       <c r="O39" s="21">
-        <v>43169</v>
+        <v>43158</v>
       </c>
       <c r="P39" s="21">
-        <v>43169</v>
+        <v>43158</v>
       </c>
       <c r="Q39" s="22">
-        <v>43175</v>
-      </c>
-      <c r="R39" s="22">
-        <v>41925</v>
-      </c>
+        <v>43168</v>
+      </c>
+      <c r="R39" s="22"/>
       <c r="S39" s="19" t="s">
         <v>11</v>
       </c>
@@ -6279,52 +6370,52 @@
         <v>2018</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F40" s="19" t="s">
         <v>36</v>
       </c>
       <c r="G40" s="21">
-        <v>35875</v>
+        <v>35212</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J40" s="19" t="s">
         <v>41</v>
       </c>
       <c r="K40" s="21">
-        <v>43140</v>
+        <v>43153</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="M40" s="54">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="M40" s="54" t="s">
+        <v>39</v>
       </c>
       <c r="N40" s="21">
-        <v>43143</v>
+        <v>43157</v>
       </c>
       <c r="O40" s="21">
-        <v>43144</v>
+        <v>43157</v>
       </c>
       <c r="P40" s="21">
-        <v>43144</v>
+        <v>43157</v>
       </c>
       <c r="Q40" s="22">
-        <v>43151</v>
+        <v>43168</v>
       </c>
       <c r="R40" s="22"/>
       <c r="S40" s="19" t="s">
@@ -6339,7 +6430,7 @@
         <v>99</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D41" s="19" t="s">
         <v>100</v>
@@ -6351,10 +6442,10 @@
         <v>36</v>
       </c>
       <c r="G41" s="21">
-        <v>42858</v>
+        <v>42942</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I41" s="19" t="s">
         <v>152</v>
@@ -6363,7 +6454,7 @@
         <v>41</v>
       </c>
       <c r="K41" s="21">
-        <v>43167</v>
+        <v>43136</v>
       </c>
       <c r="L41" s="19" t="s">
         <v>40</v>
@@ -6372,16 +6463,16 @@
         <v>40</v>
       </c>
       <c r="N41" s="21">
-        <v>43168</v>
+        <v>43137</v>
       </c>
       <c r="O41" s="21">
-        <v>43168</v>
+        <v>43137</v>
       </c>
       <c r="P41" s="21">
-        <v>43168</v>
+        <v>43137</v>
       </c>
       <c r="Q41" s="22">
-        <v>43175</v>
+        <v>43147</v>
       </c>
       <c r="R41" s="22"/>
       <c r="S41" s="19" t="s">
@@ -6393,13 +6484,13 @@
         <v>2018</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>153</v>
@@ -6408,7 +6499,7 @@
         <v>36</v>
       </c>
       <c r="G42" s="21">
-        <v>42304</v>
+        <v>42558</v>
       </c>
       <c r="H42" s="19" t="s">
         <v>10</v>
@@ -6420,7 +6511,7 @@
         <v>41</v>
       </c>
       <c r="K42" s="21">
-        <v>43171</v>
+        <v>43150</v>
       </c>
       <c r="L42" s="19" t="s">
         <v>41</v>
@@ -6429,19 +6520,19 @@
         <v>2</v>
       </c>
       <c r="N42" s="21">
-        <v>43172</v>
+        <v>43150</v>
       </c>
       <c r="O42" s="21">
-        <v>43172</v>
+        <v>43150</v>
       </c>
       <c r="P42" s="21">
-        <v>43172</v>
+        <v>43150</v>
       </c>
       <c r="Q42" s="22">
-        <v>43175</v>
+        <v>43154</v>
       </c>
       <c r="R42" s="22">
-        <v>42887</v>
+        <v>43104</v>
       </c>
       <c r="S42" s="19" t="s">
         <v>11</v>
@@ -6452,13 +6543,13 @@
         <v>2018</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>155</v>
@@ -6467,10 +6558,10 @@
         <v>36</v>
       </c>
       <c r="G43" s="21">
-        <v>42718</v>
+        <v>41189</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I43" s="19" t="s">
         <v>156</v>
@@ -6479,31 +6570,31 @@
         <v>41</v>
       </c>
       <c r="K43" s="21">
-        <v>43132</v>
+        <v>43166</v>
       </c>
       <c r="L43" s="19" t="s">
         <v>41</v>
       </c>
       <c r="M43" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N43" s="21">
-        <v>43132</v>
+        <v>43169</v>
       </c>
       <c r="O43" s="21">
-        <v>43132</v>
+        <v>43169</v>
       </c>
       <c r="P43" s="21">
-        <v>43132</v>
+        <v>43169</v>
       </c>
       <c r="Q43" s="22">
-        <v>43147</v>
+        <v>43175</v>
       </c>
       <c r="R43" s="22">
-        <v>43117</v>
+        <v>41925</v>
       </c>
       <c r="S43" s="19" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -6511,13 +6602,13 @@
         <v>2018</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E44" s="20" t="s">
         <v>157</v>
@@ -6526,10 +6617,10 @@
         <v>36</v>
       </c>
       <c r="G44" s="21">
-        <v>42678</v>
+        <v>35875</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I44" s="19" t="s">
         <v>158</v>
@@ -6538,29 +6629,27 @@
         <v>41</v>
       </c>
       <c r="K44" s="21">
-        <v>43129</v>
+        <v>43140</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="M44" s="54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N44" s="21">
-        <v>43138</v>
+        <v>43143</v>
       </c>
       <c r="O44" s="21">
-        <v>43138</v>
+        <v>43144</v>
       </c>
       <c r="P44" s="21">
-        <v>43131</v>
+        <v>43144</v>
       </c>
       <c r="Q44" s="22">
-        <v>43147</v>
-      </c>
-      <c r="R44" s="22">
-        <v>43074</v>
-      </c>
+        <v>43151</v>
+      </c>
+      <c r="R44" s="22"/>
       <c r="S44" s="19" t="s">
         <v>11</v>
       </c>
@@ -6570,13 +6659,13 @@
         <v>2018</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E45" s="20" t="s">
         <v>159</v>
@@ -6585,10 +6674,10 @@
         <v>36</v>
       </c>
       <c r="G45" s="21">
-        <v>42966</v>
+        <v>42858</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I45" s="19" t="s">
         <v>160</v>
@@ -6597,7 +6686,7 @@
         <v>41</v>
       </c>
       <c r="K45" s="21">
-        <v>43171</v>
+        <v>43167</v>
       </c>
       <c r="L45" s="19" t="s">
         <v>40</v>
@@ -6606,20 +6695,20 @@
         <v>40</v>
       </c>
       <c r="N45" s="21">
-        <v>43174</v>
+        <v>43168</v>
       </c>
       <c r="O45" s="21">
-        <v>43174</v>
+        <v>43168</v>
       </c>
       <c r="P45" s="21">
-        <v>43175</v>
+        <v>43168</v>
       </c>
       <c r="Q45" s="22">
         <v>43175</v>
       </c>
       <c r="R45" s="22"/>
       <c r="S45" s="19" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -6627,13 +6716,13 @@
         <v>2018</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E46" s="20" t="s">
         <v>161</v>
@@ -6642,7 +6731,7 @@
         <v>36</v>
       </c>
       <c r="G46" s="21">
-        <v>42704</v>
+        <v>42304</v>
       </c>
       <c r="H46" s="19" t="s">
         <v>10</v>
@@ -6654,29 +6743,31 @@
         <v>41</v>
       </c>
       <c r="K46" s="21">
-        <v>43195</v>
+        <v>43171</v>
       </c>
       <c r="L46" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="54">
+        <v>2</v>
+      </c>
+      <c r="N46" s="21">
+        <v>43172</v>
+      </c>
+      <c r="O46" s="21">
+        <v>43172</v>
+      </c>
+      <c r="P46" s="21">
+        <v>43172</v>
+      </c>
+      <c r="Q46" s="22">
+        <v>43175</v>
+      </c>
+      <c r="R46" s="22">
+        <v>42887</v>
+      </c>
+      <c r="S46" s="19" t="s">
         <v>11</v>
-      </c>
-      <c r="M46" s="54">
-        <v>0</v>
-      </c>
-      <c r="N46" s="21">
-        <v>43196</v>
-      </c>
-      <c r="O46" s="21">
-        <v>43196</v>
-      </c>
-      <c r="P46" s="21">
-        <v>43199</v>
-      </c>
-      <c r="Q46" s="22">
-        <v>43202</v>
-      </c>
-      <c r="R46" s="22"/>
-      <c r="S46" s="19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -6684,13 +6775,13 @@
         <v>2018</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>163</v>
@@ -6699,7 +6790,7 @@
         <v>36</v>
       </c>
       <c r="G47" s="21">
-        <v>42734</v>
+        <v>42718</v>
       </c>
       <c r="H47" s="19" t="s">
         <v>9</v>
@@ -6711,7 +6802,7 @@
         <v>41</v>
       </c>
       <c r="K47" s="21">
-        <v>43148</v>
+        <v>43132</v>
       </c>
       <c r="L47" s="19" t="s">
         <v>41</v>
@@ -6720,22 +6811,22 @@
         <v>1</v>
       </c>
       <c r="N47" s="21">
-        <v>43150</v>
+        <v>43132</v>
       </c>
       <c r="O47" s="21">
-        <v>43150</v>
+        <v>43132</v>
       </c>
       <c r="P47" s="21">
-        <v>43150</v>
+        <v>43132</v>
       </c>
       <c r="Q47" s="22">
-        <v>43154</v>
+        <v>43147</v>
       </c>
       <c r="R47" s="22">
-        <v>43090</v>
+        <v>43117</v>
       </c>
       <c r="S47" s="19" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -6746,7 +6837,7 @@
         <v>97</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D48" s="19" t="s">
         <v>98</v>
@@ -6758,7 +6849,7 @@
         <v>36</v>
       </c>
       <c r="G48" s="21">
-        <v>37715</v>
+        <v>42678</v>
       </c>
       <c r="H48" s="19" t="s">
         <v>9</v>
@@ -6770,7 +6861,7 @@
         <v>41</v>
       </c>
       <c r="K48" s="21">
-        <v>43150</v>
+        <v>43129</v>
       </c>
       <c r="L48" s="19" t="s">
         <v>41</v>
@@ -6779,19 +6870,19 @@
         <v>2</v>
       </c>
       <c r="N48" s="21">
-        <v>43153</v>
+        <v>43138</v>
       </c>
       <c r="O48" s="21">
-        <v>43153</v>
+        <v>43138</v>
       </c>
       <c r="P48" s="21">
-        <v>43153</v>
+        <v>43131</v>
       </c>
       <c r="Q48" s="22">
-        <v>43158</v>
+        <v>43147</v>
       </c>
       <c r="R48" s="22">
-        <v>38413</v>
+        <v>43074</v>
       </c>
       <c r="S48" s="19" t="s">
         <v>11</v>
@@ -6802,13 +6893,13 @@
         <v>2018</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E49" s="20" t="s">
         <v>167</v>
@@ -6817,10 +6908,10 @@
         <v>36</v>
       </c>
       <c r="G49" s="21">
-        <v>42398</v>
+        <v>42966</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I49" s="19" t="s">
         <v>168</v>
@@ -6829,31 +6920,29 @@
         <v>41</v>
       </c>
       <c r="K49" s="21">
-        <v>43167</v>
+        <v>43171</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M49" s="54">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="M49" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="N49" s="21">
-        <v>43169</v>
+        <v>43174</v>
       </c>
       <c r="O49" s="21">
-        <v>43169</v>
+        <v>43174</v>
       </c>
       <c r="P49" s="21">
-        <v>43169</v>
+        <v>43175</v>
       </c>
       <c r="Q49" s="22">
         <v>43175</v>
       </c>
-      <c r="R49" s="22">
-        <v>42773</v>
-      </c>
+      <c r="R49" s="22"/>
       <c r="S49" s="19" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -6861,13 +6950,13 @@
         <v>2018</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E50" s="20" t="s">
         <v>169</v>
@@ -6876,10 +6965,10 @@
         <v>36</v>
       </c>
       <c r="G50" s="21">
-        <v>41272</v>
+        <v>42892</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I50" s="19" t="s">
         <v>170</v>
@@ -6888,29 +6977,27 @@
         <v>41</v>
       </c>
       <c r="K50" s="21">
-        <v>43210</v>
+        <v>43151</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M50" s="54">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="M50" s="54" t="s">
+        <v>39</v>
       </c>
       <c r="N50" s="21">
-        <v>43210</v>
+        <v>43160</v>
       </c>
       <c r="O50" s="21">
-        <v>43210</v>
+        <v>43160</v>
       </c>
       <c r="P50" s="21">
-        <v>43210</v>
+        <v>43160</v>
       </c>
       <c r="Q50" s="22">
-        <v>43216</v>
-      </c>
-      <c r="R50" s="22">
-        <v>41996</v>
-      </c>
+        <v>43167</v>
+      </c>
+      <c r="R50" s="22"/>
       <c r="S50" s="19" t="s">
         <v>39</v>
       </c>
@@ -6919,14 +7006,14 @@
       <c r="A51" s="18">
         <v>2018</v>
       </c>
-      <c r="B51" s="18" t="s">
-        <v>99</v>
+      <c r="B51" s="55" t="s">
+        <v>90</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>100</v>
+        <v>219</v>
+      </c>
+      <c r="D51" s="56" t="s">
+        <v>88</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>171</v>
@@ -6935,10 +7022,10 @@
         <v>36</v>
       </c>
       <c r="G51" s="21">
-        <v>43013</v>
+        <v>36027</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I51" s="19" t="s">
         <v>172</v>
@@ -6947,27 +7034,29 @@
         <v>41</v>
       </c>
       <c r="K51" s="21">
-        <v>43208</v>
+        <v>43195</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M51" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="M51" s="54">
+        <v>2</v>
       </c>
       <c r="N51" s="21">
-        <v>43210</v>
+        <v>43196</v>
       </c>
       <c r="O51" s="21">
-        <v>43210</v>
+        <v>43196</v>
       </c>
       <c r="P51" s="21">
-        <v>43210</v>
+        <v>43196</v>
       </c>
       <c r="Q51" s="22">
-        <v>43216</v>
-      </c>
-      <c r="R51" s="22"/>
+        <v>43202</v>
+      </c>
+      <c r="R51" s="22">
+        <v>36725</v>
+      </c>
       <c r="S51" s="19" t="s">
         <v>39</v>
       </c>
@@ -6976,14 +7065,14 @@
       <c r="A52" s="18">
         <v>2018</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>93</v>
+      <c r="B52" s="55" t="s">
+        <v>90</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>94</v>
+        <v>219</v>
+      </c>
+      <c r="D52" s="56" t="s">
+        <v>88</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>173</v>
@@ -6992,10 +7081,10 @@
         <v>36</v>
       </c>
       <c r="G52" s="21">
-        <v>40768</v>
+        <v>39041</v>
       </c>
       <c r="H52" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I52" s="19" t="s">
         <v>174</v>
@@ -7004,7 +7093,7 @@
         <v>41</v>
       </c>
       <c r="K52" s="21">
-        <v>43207</v>
+        <v>43194</v>
       </c>
       <c r="L52" s="19" t="s">
         <v>41</v>
@@ -7013,22 +7102,22 @@
         <v>2</v>
       </c>
       <c r="N52" s="21">
-        <v>43208</v>
+        <v>43196</v>
       </c>
       <c r="O52" s="21">
-        <v>43209</v>
+        <v>43196</v>
       </c>
       <c r="P52" s="21">
-        <v>43208</v>
+        <v>43196</v>
       </c>
       <c r="Q52" s="22">
-        <v>43216</v>
+        <v>43202</v>
       </c>
       <c r="R52" s="22">
-        <v>41507</v>
+        <v>39770</v>
       </c>
       <c r="S52" s="19" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -7036,13 +7125,13 @@
         <v>2018</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E53" s="20" t="s">
         <v>175</v>
@@ -7051,7 +7140,7 @@
         <v>36</v>
       </c>
       <c r="G53" s="21">
-        <v>43035</v>
+        <v>42704</v>
       </c>
       <c r="H53" s="19" t="s">
         <v>10</v>
@@ -7063,43 +7152,43 @@
         <v>41</v>
       </c>
       <c r="K53" s="21">
-        <v>43217</v>
+        <v>43195</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="M53" s="19" t="s">
-        <v>40</v>
+        <v>11</v>
+      </c>
+      <c r="M53" s="54">
+        <v>0</v>
       </c>
       <c r="N53" s="21">
-        <v>43218</v>
+        <v>43196</v>
       </c>
       <c r="O53" s="21">
-        <v>43218</v>
+        <v>43196</v>
       </c>
       <c r="P53" s="21">
-        <v>43218</v>
+        <v>43199</v>
       </c>
       <c r="Q53" s="22">
-        <v>43224</v>
+        <v>43202</v>
       </c>
       <c r="R53" s="22"/>
       <c r="S53" s="19" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="18">
         <v>2018</v>
       </c>
-      <c r="B54" s="18" t="s">
-        <v>91</v>
+      <c r="B54" s="55" t="s">
+        <v>90</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>92</v>
+        <v>219</v>
+      </c>
+      <c r="D54" s="56" t="s">
+        <v>88</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>177</v>
@@ -7108,7 +7197,7 @@
         <v>36</v>
       </c>
       <c r="G54" s="21">
-        <v>42037</v>
+        <v>42933</v>
       </c>
       <c r="H54" s="19" t="s">
         <v>10</v>
@@ -7120,29 +7209,27 @@
         <v>41</v>
       </c>
       <c r="K54" s="21">
-        <v>43216</v>
+        <v>43200</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M54" s="54">
-        <v>2</v>
+        <v>40</v>
+      </c>
+      <c r="M54" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="N54" s="21">
-        <v>43227</v>
+        <v>43201</v>
       </c>
       <c r="O54" s="21">
-        <v>43227</v>
+        <v>43202</v>
       </c>
       <c r="P54" s="21">
-        <v>43227</v>
+        <v>43202</v>
       </c>
       <c r="Q54" s="22">
-        <v>43230</v>
-      </c>
-      <c r="R54" s="22">
-        <v>42611</v>
-      </c>
+        <v>43208</v>
+      </c>
+      <c r="R54" s="22"/>
       <c r="S54" s="19" t="s">
         <v>11</v>
       </c>
@@ -7152,13 +7239,13 @@
         <v>2018</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E55" s="20" t="s">
         <v>179</v>
@@ -7167,7 +7254,7 @@
         <v>36</v>
       </c>
       <c r="G55" s="21">
-        <v>39882</v>
+        <v>42734</v>
       </c>
       <c r="H55" s="19" t="s">
         <v>9</v>
@@ -7179,28 +7266,28 @@
         <v>41</v>
       </c>
       <c r="K55" s="21">
-        <v>43158</v>
+        <v>43148</v>
       </c>
       <c r="L55" s="19" t="s">
         <v>41</v>
       </c>
       <c r="M55" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N55" s="21">
-        <v>43164</v>
+        <v>43150</v>
       </c>
       <c r="O55" s="21">
-        <v>43164</v>
+        <v>43150</v>
       </c>
       <c r="P55" s="21">
-        <v>43164</v>
+        <v>43150</v>
       </c>
       <c r="Q55" s="22">
-        <v>43167</v>
+        <v>43154</v>
       </c>
       <c r="R55" s="22">
-        <v>41347</v>
+        <v>43090</v>
       </c>
       <c r="S55" s="19" t="s">
         <v>11</v>
@@ -7211,13 +7298,13 @@
         <v>2018</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E56" s="20" t="s">
         <v>181</v>
@@ -7226,7 +7313,7 @@
         <v>36</v>
       </c>
       <c r="G56" s="21">
-        <v>41578</v>
+        <v>37715</v>
       </c>
       <c r="H56" s="19" t="s">
         <v>9</v>
@@ -7238,7 +7325,7 @@
         <v>41</v>
       </c>
       <c r="K56" s="21">
-        <v>43228</v>
+        <v>43150</v>
       </c>
       <c r="L56" s="19" t="s">
         <v>41</v>
@@ -7247,19 +7334,19 @@
         <v>2</v>
       </c>
       <c r="N56" s="21">
-        <v>43229</v>
+        <v>43153</v>
       </c>
       <c r="O56" s="21">
-        <v>43229</v>
+        <v>43153</v>
       </c>
       <c r="P56" s="21">
-        <v>43229</v>
+        <v>43153</v>
       </c>
       <c r="Q56" s="22">
-        <v>43234</v>
+        <v>43158</v>
       </c>
       <c r="R56" s="22">
-        <v>42114</v>
+        <v>38413</v>
       </c>
       <c r="S56" s="19" t="s">
         <v>11</v>
@@ -7273,7 +7360,7 @@
         <v>99</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D57" s="19" t="s">
         <v>100</v>
@@ -7285,10 +7372,10 @@
         <v>36</v>
       </c>
       <c r="G57" s="21">
-        <v>42640</v>
+        <v>42398</v>
       </c>
       <c r="H57" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I57" s="19" t="s">
         <v>184</v>
@@ -7297,28 +7384,28 @@
         <v>41</v>
       </c>
       <c r="K57" s="21">
-        <v>43243</v>
+        <v>43167</v>
       </c>
       <c r="L57" s="19" t="s">
         <v>41</v>
       </c>
       <c r="M57" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N57" s="21">
-        <v>43243</v>
+        <v>43169</v>
       </c>
       <c r="O57" s="21">
-        <v>43243</v>
+        <v>43169</v>
       </c>
       <c r="P57" s="21">
-        <v>43243</v>
+        <v>43169</v>
       </c>
       <c r="Q57" s="22">
-        <v>43258</v>
+        <v>43175</v>
       </c>
       <c r="R57" s="22">
-        <v>43167</v>
+        <v>42773</v>
       </c>
       <c r="S57" s="19" t="s">
         <v>11</v>
@@ -7329,13 +7416,13 @@
         <v>2018</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>185</v>
@@ -7344,7 +7431,7 @@
         <v>36</v>
       </c>
       <c r="G58" s="21">
-        <v>42869</v>
+        <v>41272</v>
       </c>
       <c r="H58" s="19" t="s">
         <v>10</v>
@@ -7356,232 +7443,820 @@
         <v>41</v>
       </c>
       <c r="K58" s="21">
+        <v>43210</v>
+      </c>
+      <c r="L58" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M58" s="54">
+        <v>2</v>
+      </c>
+      <c r="N58" s="21">
+        <v>43210</v>
+      </c>
+      <c r="O58" s="21">
+        <v>43210</v>
+      </c>
+      <c r="P58" s="21">
+        <v>43210</v>
+      </c>
+      <c r="Q58" s="22">
+        <v>43216</v>
+      </c>
+      <c r="R58" s="22">
+        <v>41996</v>
+      </c>
+      <c r="S58" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="21">
+        <v>43013</v>
+      </c>
+      <c r="H59" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K59" s="21">
+        <v>43208</v>
+      </c>
+      <c r="L59" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M59" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N59" s="21">
+        <v>43210</v>
+      </c>
+      <c r="O59" s="21">
+        <v>43210</v>
+      </c>
+      <c r="P59" s="21">
+        <v>43210</v>
+      </c>
+      <c r="Q59" s="22">
+        <v>43216</v>
+      </c>
+      <c r="R59" s="22"/>
+      <c r="S59" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="21">
+        <v>40768</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K60" s="21">
+        <v>43207</v>
+      </c>
+      <c r="L60" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M60" s="54">
+        <v>2</v>
+      </c>
+      <c r="N60" s="21">
+        <v>43208</v>
+      </c>
+      <c r="O60" s="21">
+        <v>43209</v>
+      </c>
+      <c r="P60" s="21">
+        <v>43208</v>
+      </c>
+      <c r="Q60" s="22">
+        <v>43216</v>
+      </c>
+      <c r="R60" s="22">
+        <v>41507</v>
+      </c>
+      <c r="S60" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" s="21">
+        <v>43035</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="J61" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K61" s="21">
+        <v>43217</v>
+      </c>
+      <c r="L61" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M61" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N61" s="21">
+        <v>43218</v>
+      </c>
+      <c r="O61" s="21">
+        <v>43218</v>
+      </c>
+      <c r="P61" s="21">
+        <v>43218</v>
+      </c>
+      <c r="Q61" s="22">
+        <v>43224</v>
+      </c>
+      <c r="R61" s="22"/>
+      <c r="S61" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="21">
+        <v>42037</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J62" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K62" s="21">
+        <v>43216</v>
+      </c>
+      <c r="L62" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M62" s="54">
+        <v>2</v>
+      </c>
+      <c r="N62" s="21">
+        <v>43227</v>
+      </c>
+      <c r="O62" s="21">
+        <v>43227</v>
+      </c>
+      <c r="P62" s="21">
+        <v>43227</v>
+      </c>
+      <c r="Q62" s="22">
+        <v>43230</v>
+      </c>
+      <c r="R62" s="22">
+        <v>42611</v>
+      </c>
+      <c r="S62" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="21">
+        <v>43038</v>
+      </c>
+      <c r="H63" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K63" s="21">
+        <v>43221</v>
+      </c>
+      <c r="L63" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M63" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N63" s="21">
+        <v>43222</v>
+      </c>
+      <c r="O63" s="21">
+        <v>43225</v>
+      </c>
+      <c r="P63" s="21">
+        <v>43225</v>
+      </c>
+      <c r="Q63" s="22">
+        <v>43230</v>
+      </c>
+      <c r="R63" s="22"/>
+      <c r="S63" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="21">
+        <v>32665</v>
+      </c>
+      <c r="H64" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J64" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K64" s="21">
+        <v>43143</v>
+      </c>
+      <c r="L64" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M64" s="54">
+        <v>2</v>
+      </c>
+      <c r="N64" s="21">
+        <v>43147</v>
+      </c>
+      <c r="O64" s="21">
+        <v>43153</v>
+      </c>
+      <c r="P64" s="21">
+        <v>43153</v>
+      </c>
+      <c r="Q64" s="22">
+        <v>43158</v>
+      </c>
+      <c r="R64" s="22"/>
+      <c r="S64" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="21">
+        <v>39882</v>
+      </c>
+      <c r="H65" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="J65" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K65" s="21">
+        <v>43158</v>
+      </c>
+      <c r="L65" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M65" s="54">
+        <v>2</v>
+      </c>
+      <c r="N65" s="21">
+        <v>43164</v>
+      </c>
+      <c r="O65" s="21">
+        <v>43164</v>
+      </c>
+      <c r="P65" s="21">
+        <v>43164</v>
+      </c>
+      <c r="Q65" s="22">
+        <v>43167</v>
+      </c>
+      <c r="R65" s="22">
+        <v>41347</v>
+      </c>
+      <c r="S65" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" s="21">
+        <v>41578</v>
+      </c>
+      <c r="H66" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="J66" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K66" s="21">
+        <v>43228</v>
+      </c>
+      <c r="L66" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M66" s="54">
+        <v>2</v>
+      </c>
+      <c r="N66" s="21">
+        <v>43229</v>
+      </c>
+      <c r="O66" s="21">
+        <v>43229</v>
+      </c>
+      <c r="P66" s="21">
+        <v>43229</v>
+      </c>
+      <c r="Q66" s="22">
+        <v>43234</v>
+      </c>
+      <c r="R66" s="22">
+        <v>42114</v>
+      </c>
+      <c r="S66" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" s="21">
+        <v>42749</v>
+      </c>
+      <c r="H67" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="J67" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K67" s="21">
+        <v>43239</v>
+      </c>
+      <c r="L67" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M67" s="54">
+        <v>1</v>
+      </c>
+      <c r="N67" s="21">
+        <v>43239</v>
+      </c>
+      <c r="O67" s="21">
+        <v>43239</v>
+      </c>
+      <c r="P67" s="21">
+        <v>43239</v>
+      </c>
+      <c r="Q67" s="22">
+        <v>43291</v>
+      </c>
+      <c r="R67" s="22">
+        <v>43081</v>
+      </c>
+      <c r="S67" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" s="21">
+        <v>42640</v>
+      </c>
+      <c r="H68" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K68" s="21">
+        <v>43243</v>
+      </c>
+      <c r="L68" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M68" s="54">
+        <v>2</v>
+      </c>
+      <c r="N68" s="21">
+        <v>43243</v>
+      </c>
+      <c r="O68" s="21">
+        <v>43243</v>
+      </c>
+      <c r="P68" s="21">
+        <v>43243</v>
+      </c>
+      <c r="Q68" s="22">
+        <v>43258</v>
+      </c>
+      <c r="R68" s="22">
+        <v>43167</v>
+      </c>
+      <c r="S68" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69" s="21">
+        <v>42869</v>
+      </c>
+      <c r="H69" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="J69" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K69" s="21">
         <v>43359</v>
       </c>
-      <c r="L58" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="M58" s="54">
+      <c r="L69" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M69" s="54">
         <v>1</v>
       </c>
-      <c r="N58" s="21">
+      <c r="N69" s="21">
         <v>43361</v>
       </c>
-      <c r="O58" s="21">
+      <c r="O69" s="21">
         <v>43361</v>
       </c>
-      <c r="P58" s="21">
+      <c r="P69" s="21">
         <v>43361</v>
       </c>
-      <c r="Q58" s="22">
+      <c r="Q69" s="22">
         <v>43374</v>
       </c>
-      <c r="R58" s="22">
+      <c r="R69" s="22">
         <v>43237</v>
       </c>
-      <c r="S58" s="19" t="s">
+      <c r="S69" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
-      <c r="A59" s="18" t="s">
+    <row r="70" spans="1:19">
+      <c r="A70" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" s="21">
+        <v>43217</v>
+      </c>
+      <c r="H70" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="J70" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K70" s="21">
+        <v>43366</v>
+      </c>
+      <c r="L70" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="M70" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N70" s="21">
+        <v>43367</v>
+      </c>
+      <c r="O70" s="21">
+        <v>43367</v>
+      </c>
+      <c r="P70" s="21">
+        <v>43367</v>
+      </c>
+      <c r="Q70" s="22">
+        <v>43381</v>
+      </c>
+      <c r="R70" s="22"/>
+      <c r="S70" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="F71" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" s="21">
+        <v>41448</v>
+      </c>
+      <c r="H71" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="J71" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K71" s="21">
+        <v>43157</v>
+      </c>
+      <c r="L71" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M71" s="54">
         <v>2</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="19">
+      <c r="N71" s="21">
+        <v>43160</v>
+      </c>
+      <c r="O71" s="21">
+        <v>43160</v>
+      </c>
+      <c r="P71" s="21">
+        <v>43160</v>
+      </c>
+      <c r="Q71" s="22">
+        <v>43167</v>
+      </c>
+      <c r="R71" s="22">
+        <v>42376</v>
+      </c>
+      <c r="S71" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="19">
         <f>SUBTOTAL(103,table_case_based_data18[Reporting municipality])</f>
-        <v>45</v>
-      </c>
-      <c r="E59" s="20">
+        <v>58</v>
+      </c>
+      <c r="E72" s="20">
         <f>SUBTOTAL(103,table_case_based_data18[Case ID])</f>
-        <v>45</v>
-      </c>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="21"/>
-      <c r="O59" s="21"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="19"/>
-    </row>
-    <row r="60" spans="1:19">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="G60" s="26"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="28"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="28"/>
-      <c r="Q60" s="28"/>
-      <c r="R60" s="26"/>
-    </row>
-    <row r="61" spans="1:19">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="G61" s="26"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="28"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="P61" s="28"/>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="26"/>
-    </row>
-    <row r="62" spans="1:19">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="G62" s="26"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="28"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="P62" s="28"/>
-      <c r="Q62" s="28"/>
-      <c r="R62" s="26"/>
-    </row>
-    <row r="63" spans="1:19">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="G63" s="26"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="28"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="28"/>
-      <c r="Q63" s="28"/>
-      <c r="R63" s="26"/>
-    </row>
-    <row r="64" spans="1:19">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="G64" s="26"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="28"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="26"/>
-    </row>
-    <row r="65" spans="1:18">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="G65" s="26"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="28"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="P65" s="28"/>
-      <c r="Q65" s="28"/>
-      <c r="R65" s="26"/>
-    </row>
-    <row r="66" spans="1:18">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="G66" s="26"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="28"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="28"/>
-      <c r="O66" s="28"/>
-      <c r="P66" s="28"/>
-      <c r="Q66" s="28"/>
-      <c r="R66" s="26"/>
-    </row>
-    <row r="67" spans="1:18">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="G67" s="26"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="28"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="28"/>
-      <c r="O67" s="28"/>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="28"/>
-      <c r="R67" s="26"/>
-    </row>
-    <row r="68" spans="1:18">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="G68" s="26"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="28"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28"/>
-      <c r="P68" s="28"/>
-      <c r="Q68" s="28"/>
-      <c r="R68" s="26"/>
-    </row>
-    <row r="69" spans="1:18">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="G69" s="26"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="28"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
-      <c r="P69" s="28"/>
-      <c r="Q69" s="28"/>
-      <c r="R69" s="26"/>
-    </row>
-    <row r="70" spans="1:18">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="G70" s="26"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="28"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="28"/>
-      <c r="O70" s="28"/>
-      <c r="P70" s="28"/>
-      <c r="Q70" s="28"/>
-      <c r="R70" s="26"/>
-    </row>
-    <row r="71" spans="1:18">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="G71" s="26"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="28"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="28"/>
-      <c r="O71" s="28"/>
-      <c r="P71" s="28"/>
-      <c r="Q71" s="28"/>
-      <c r="R71" s="26"/>
-    </row>
-    <row r="72" spans="1:18">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="G72" s="26"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="28"/>
-      <c r="M72" s="29"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="28"/>
-      <c r="R72" s="26"/>
-    </row>
-    <row r="73" spans="1:18">
+        <v>58</v>
+      </c>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="22"/>
+      <c r="S72" s="19"/>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="G73" s="26"/>
@@ -7594,7 +8269,7 @@
       <c r="Q73" s="28"/>
       <c r="R73" s="26"/>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:19">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="G74" s="26"/>
@@ -7607,7 +8282,7 @@
       <c r="Q74" s="28"/>
       <c r="R74" s="26"/>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:19">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="G75" s="26"/>
@@ -7620,7 +8295,7 @@
       <c r="Q75" s="28"/>
       <c r="R75" s="26"/>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:19">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="G76" s="26"/>
@@ -7633,7 +8308,7 @@
       <c r="Q76" s="28"/>
       <c r="R76" s="26"/>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:19">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="G77" s="26"/>
@@ -7646,7 +8321,7 @@
       <c r="Q77" s="28"/>
       <c r="R77" s="26"/>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:19">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="G78" s="26"/>
@@ -7659,7 +8334,7 @@
       <c r="Q78" s="28"/>
       <c r="R78" s="26"/>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:19">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="G79" s="26"/>
@@ -7672,7 +8347,7 @@
       <c r="Q79" s="28"/>
       <c r="R79" s="26"/>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:19">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="G80" s="26"/>
@@ -7931,6 +8606,175 @@
       <c r="P99" s="28"/>
       <c r="Q99" s="28"/>
       <c r="R99" s="26"/>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="G100" s="26"/>
+      <c r="J100" s="27"/>
+      <c r="K100" s="28"/>
+      <c r="M100" s="29"/>
+      <c r="N100" s="28"/>
+      <c r="O100" s="28"/>
+      <c r="P100" s="28"/>
+      <c r="Q100" s="28"/>
+      <c r="R100" s="26"/>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" s="25"/>
+      <c r="B101" s="25"/>
+      <c r="G101" s="26"/>
+      <c r="J101" s="27"/>
+      <c r="K101" s="28"/>
+      <c r="M101" s="29"/>
+      <c r="N101" s="28"/>
+      <c r="O101" s="28"/>
+      <c r="P101" s="28"/>
+      <c r="Q101" s="28"/>
+      <c r="R101" s="26"/>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
+      <c r="G102" s="26"/>
+      <c r="J102" s="27"/>
+      <c r="K102" s="28"/>
+      <c r="M102" s="29"/>
+      <c r="N102" s="28"/>
+      <c r="O102" s="28"/>
+      <c r="P102" s="28"/>
+      <c r="Q102" s="28"/>
+      <c r="R102" s="26"/>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
+      <c r="G103" s="26"/>
+      <c r="J103" s="27"/>
+      <c r="K103" s="28"/>
+      <c r="M103" s="29"/>
+      <c r="N103" s="28"/>
+      <c r="O103" s="28"/>
+      <c r="P103" s="28"/>
+      <c r="Q103" s="28"/>
+      <c r="R103" s="26"/>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="25"/>
+      <c r="B104" s="25"/>
+      <c r="G104" s="26"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="28"/>
+      <c r="M104" s="29"/>
+      <c r="N104" s="28"/>
+      <c r="O104" s="28"/>
+      <c r="P104" s="28"/>
+      <c r="Q104" s="28"/>
+      <c r="R104" s="26"/>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="25"/>
+      <c r="B105" s="25"/>
+      <c r="G105" s="26"/>
+      <c r="J105" s="27"/>
+      <c r="K105" s="28"/>
+      <c r="M105" s="29"/>
+      <c r="N105" s="28"/>
+      <c r="O105" s="28"/>
+      <c r="P105" s="28"/>
+      <c r="Q105" s="28"/>
+      <c r="R105" s="26"/>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="G106" s="26"/>
+      <c r="J106" s="27"/>
+      <c r="K106" s="28"/>
+      <c r="M106" s="29"/>
+      <c r="N106" s="28"/>
+      <c r="O106" s="28"/>
+      <c r="P106" s="28"/>
+      <c r="Q106" s="28"/>
+      <c r="R106" s="26"/>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="G107" s="26"/>
+      <c r="J107" s="27"/>
+      <c r="K107" s="28"/>
+      <c r="M107" s="29"/>
+      <c r="N107" s="28"/>
+      <c r="O107" s="28"/>
+      <c r="P107" s="28"/>
+      <c r="Q107" s="28"/>
+      <c r="R107" s="26"/>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="G108" s="26"/>
+      <c r="J108" s="27"/>
+      <c r="K108" s="28"/>
+      <c r="M108" s="29"/>
+      <c r="N108" s="28"/>
+      <c r="O108" s="28"/>
+      <c r="P108" s="28"/>
+      <c r="Q108" s="28"/>
+      <c r="R108" s="26"/>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="G109" s="26"/>
+      <c r="J109" s="27"/>
+      <c r="K109" s="28"/>
+      <c r="M109" s="29"/>
+      <c r="N109" s="28"/>
+      <c r="O109" s="28"/>
+      <c r="P109" s="28"/>
+      <c r="Q109" s="28"/>
+      <c r="R109" s="26"/>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
+      <c r="G110" s="26"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="28"/>
+      <c r="M110" s="29"/>
+      <c r="N110" s="28"/>
+      <c r="O110" s="28"/>
+      <c r="P110" s="28"/>
+      <c r="Q110" s="28"/>
+      <c r="R110" s="26"/>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="G111" s="26"/>
+      <c r="J111" s="27"/>
+      <c r="K111" s="28"/>
+      <c r="M111" s="29"/>
+      <c r="N111" s="28"/>
+      <c r="O111" s="28"/>
+      <c r="P111" s="28"/>
+      <c r="Q111" s="28"/>
+      <c r="R111" s="26"/>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
+      <c r="G112" s="26"/>
+      <c r="J112" s="27"/>
+      <c r="K112" s="28"/>
+      <c r="M112" s="29"/>
+      <c r="N112" s="28"/>
+      <c r="O112" s="28"/>
+      <c r="P112" s="28"/>
+      <c r="Q112" s="28"/>
+      <c r="R112" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7945,37 +8789,37 @@
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="10">
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a valid date" sqref="N60:R99 N14:R58" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a valid date" sqref="N73:R112 N14:R71" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>1</formula1>
       <formula2>73051</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F60:F99 F14:F58" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F73:F112 F14:F71" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>INDIRECT("tbl_final_classification[Final Classification]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H60:H99 H14:H58" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H73:H112 H14:H71" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>INDIRECT("tbl_sex[Sex]")</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A60:B99 B47 B49:B58 A14:A58" xr:uid="{00000000-0002-0000-0500-000003000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A73:B112 B57:B71 A14:A71 B55" xr:uid="{00000000-0002-0000-0500-000003000000}">
       <formula1>1980</formula1>
       <formula2>2100</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L60:L99 M14 M25 M27:M28 M30 M37 M41 M45 M51 M53 L14:L58" xr:uid="{00000000-0002-0000-0500-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L73:L112 L14:L71 M15 M28 M30:M31 M33 M41 M45 M49 M54 M59 M61 M63 M70" xr:uid="{00000000-0002-0000-0500-000004000000}">
       <formula1>INDIRECT("tbl_vaccination_status[Vaccination Status]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M60:M99 M26 M29 M38:M40 M42:M44 M52 M54:M58 M46:M50 M31:M36 M15:M24" xr:uid="{00000000-0002-0000-0500-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M73:M112 M14 M16:M27 M29 M32 M34:M40 M42:M44 M46:M48 M50:M53 M55:M58 M60 M62 M64:M69 M71" xr:uid="{00000000-0002-0000-0500-000005000000}">
       <formula1>INDIRECT("tbl_num_of_doses[Number Of Doses]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J60:J99 J14:J58" xr:uid="{00000000-0002-0000-0500-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J73:J112 J14:J71" xr:uid="{00000000-0002-0000-0500-000006000000}">
       <formula1>INDIRECT("tbl_Yes_No[Yes No]")</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a whole number" sqref="G60:G99 G14:G58" xr:uid="{00000000-0002-0000-0500-000007000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please enter a whole number" sqref="G73:G112 G14:G71" xr:uid="{00000000-0002-0000-0500-000007000000}">
       <formula1>1</formula1>
       <formula2>73051</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S60:S99 S14:S58" xr:uid="{00000000-0002-0000-0500-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S73:S112 S14:S71" xr:uid="{00000000-0002-0000-0500-000008000000}">
       <formula1>INDIRECT("tbl_Travel_History[Travel History]")</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I60:I99" xr:uid="{00000000-0002-0000-0500-000009000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I73:I112" xr:uid="{00000000-0002-0000-0500-000009000000}">
       <formula1>1</formula1>
       <formula2>73051</formula2>
     </dataValidation>
@@ -7993,8 +8837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="167" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -8009,10 +8853,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="91.75" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="C1" s="39" t="s">
         <v>30</v>
@@ -8021,10 +8865,10 @@
         <v>31</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8035,10 +8879,10 @@
         <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>41</v>
@@ -8055,16 +8899,16 @@
         <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="30">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8075,16 +8919,16 @@
         <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="30">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8095,16 +8939,16 @@
         <v>95</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="30">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8115,10 +8959,10 @@
         <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="E6" s="30" t="s">
         <v>41</v>
@@ -8135,16 +8979,16 @@
         <v>99</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="E7" s="30" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="30">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -8294,18 +9138,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8532,6 +9376,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6264E33-6917-4678-8EC8-8D88A2F9795C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A51E5E2-41F2-4A1F-A4B0-950DEDB4B143}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -8544,14 +9396,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6264E33-6917-4678-8EC8-8D88A2F9795C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/Data/country_data.xlsx
+++ b/src/Data/country_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f5aee5c5b004427f/Documents/mr-risk-assessment/src/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafal\OneDrive\Documents\mr-risk-assessment\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{ECB9B45C-EA6E-2B4F-B642-69CC5184D9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CDAE545-0498-478B-BFA1-6E1FC662BDE4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB21942-1E30-4A3E-86F4-D1438ED0EF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="773" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-General" sheetId="1" r:id="rId1"/>
@@ -3136,8 +3136,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -3403,7 +3403,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -9138,21 +9138,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007C69FE739999C447A76F1EF8B3FD66E4" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cbd048430c8551c34c2c3c8571f1b260">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4655c133-e14e-4d88-8fbc-c3b347145ec5" xmlns:ns4="64ced670-a384-4657-ba0f-fc07d30f5a44" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5457dbb80d17598a17de4d439e456cf2" ns3:_="" ns4:_="">
     <xsd:import namespace="4655c133-e14e-4d88-8fbc-c3b347145ec5"/>
@@ -9375,10 +9360,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6264E33-6917-4678-8EC8-8D88A2F9795C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C9E008-75C3-4280-8CCC-7498B59407BC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4655c133-e14e-4d88-8fbc-c3b347145ec5"/>
+    <ds:schemaRef ds:uri="64ced670-a384-4657-ba0f-fc07d30f5a44"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9401,20 +9412,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C9E008-75C3-4280-8CCC-7498B59407BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6264E33-6917-4678-8EC8-8D88A2F9795C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4655c133-e14e-4d88-8fbc-c3b347145ec5"/>
-    <ds:schemaRef ds:uri="64ced670-a384-4657-ba0f-fc07d30f5a44"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>